--- a/USDATAX/GOOGL.xlsx
+++ b/USDATAX/GOOGL.xlsx
@@ -18,14 +18,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="66">
   <si>
     <t>Kalem</t>
   </si>
   <si>
+    <t>2012/12</t>
+  </si>
+  <si>
+    <t>2013/12</t>
+  </si>
+  <si>
+    <t>2014/12</t>
+  </si>
+  <si>
     <t>2014/9</t>
   </si>
   <si>
+    <t>2015/12</t>
+  </si>
+  <si>
     <t>2015/3</t>
   </si>
   <si>
@@ -35,6 +47,9 @@
     <t>2015/9</t>
   </si>
   <si>
+    <t>2016/12</t>
+  </si>
+  <si>
     <t>2016/3</t>
   </si>
   <si>
@@ -44,6 +59,9 @@
     <t>2016/9</t>
   </si>
   <si>
+    <t>2017/12</t>
+  </si>
+  <si>
     <t>2017/3</t>
   </si>
   <si>
@@ -53,6 +71,9 @@
     <t>2017/9</t>
   </si>
   <si>
+    <t>2018/12</t>
+  </si>
+  <si>
     <t>2018/3</t>
   </si>
   <si>
@@ -62,6 +83,9 @@
     <t>2018/9</t>
   </si>
   <si>
+    <t>2019/12</t>
+  </si>
+  <si>
     <t>2019/3</t>
   </si>
   <si>
@@ -71,6 +95,9 @@
     <t>2019/9</t>
   </si>
   <si>
+    <t>2020/12</t>
+  </si>
+  <si>
     <t>2020/3</t>
   </si>
   <si>
@@ -80,6 +107,9 @@
     <t>2020/9</t>
   </si>
   <si>
+    <t>2021/12</t>
+  </si>
+  <si>
     <t>2021/3</t>
   </si>
   <si>
@@ -89,6 +119,9 @@
     <t>2021/9</t>
   </si>
   <si>
+    <t>2022/12</t>
+  </si>
+  <si>
     <t>2022/3</t>
   </si>
   <si>
@@ -98,6 +131,9 @@
     <t>2022/9</t>
   </si>
   <si>
+    <t>2023/12</t>
+  </si>
+  <si>
     <t>2023/3</t>
   </si>
   <si>
@@ -107,6 +143,9 @@
     <t>2023/9</t>
   </si>
   <si>
+    <t>2024/12</t>
+  </si>
+  <si>
     <t>2024/3</t>
   </si>
   <si>
@@ -140,7 +179,37 @@
     <t>Nakit Değişimi</t>
   </si>
   <si>
+    <t>Nakit ve Nakit Benzerleri</t>
+  </si>
+  <si>
     <t>Satış Gelirleri</t>
+  </si>
+  <si>
+    <t>Stoklar</t>
+  </si>
+  <si>
+    <t>Ticari Alacaklar</t>
+  </si>
+  <si>
+    <t>Toplam Duran Varlıklar</t>
+  </si>
+  <si>
+    <t>Toplam Dönen Varlıklar</t>
+  </si>
+  <si>
+    <t>Toplam Kaynaklar</t>
+  </si>
+  <si>
+    <t>Toplam Kısa Vadeli Yükümlülükler</t>
+  </si>
+  <si>
+    <t>Toplam Varlıklar</t>
+  </si>
+  <si>
+    <t>Toplam Özkaynaklar</t>
+  </si>
+  <si>
+    <t>Uzun Vadeli Borçlanmalar</t>
   </si>
   <si>
     <t>Yatırım Faaliyetlerinden Kaynaklanan Nakit Akışları</t>
@@ -504,13 +573,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AV19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,566 +685,1738 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="E2">
         <v>-2655000000</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>-2753000000</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>-2789000000</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>-3230000000</v>
       </c>
-      <c r="F2">
+      <c r="K2">
         <v>-3367000000</v>
       </c>
-      <c r="G2">
+      <c r="L2">
         <v>-3363000000</v>
       </c>
-      <c r="H2">
+      <c r="M2">
         <v>-3596000000</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>-3942000000</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>-4172000000</v>
       </c>
-      <c r="K2">
+      <c r="Q2">
         <v>-4205000000</v>
       </c>
-      <c r="L2">
+      <c r="S2">
         <v>-5039000000</v>
       </c>
-      <c r="M2">
+      <c r="T2">
         <v>-5114000000</v>
       </c>
-      <c r="N2">
+      <c r="U2">
         <v>-5232000000</v>
       </c>
-      <c r="O2">
+      <c r="W2">
         <v>-6029000000</v>
       </c>
-      <c r="P2">
+      <c r="X2">
         <v>-6213000000</v>
       </c>
-      <c r="Q2">
+      <c r="Y2">
         <v>-6554000000</v>
       </c>
-      <c r="R2">
+      <c r="AA2">
         <v>-6820000000</v>
       </c>
-      <c r="S2">
+      <c r="AB2">
         <v>-6875000000</v>
       </c>
-      <c r="T2">
+      <c r="AC2">
         <v>-6856000000</v>
       </c>
-      <c r="U2">
+      <c r="AE2">
         <v>-7485000000</v>
       </c>
-      <c r="V2">
+      <c r="AF2">
         <v>-7675000000</v>
       </c>
-      <c r="W2">
+      <c r="AG2">
         <v>-7694000000</v>
       </c>
-      <c r="X2">
+      <c r="AI2">
         <v>-9119000000</v>
       </c>
-      <c r="Y2">
+      <c r="AJ2">
         <v>-9841000000</v>
       </c>
-      <c r="Z2">
+      <c r="AK2">
         <v>-10273000000</v>
       </c>
-      <c r="AA2">
+      <c r="AM2">
         <v>-11468000000</v>
       </c>
-      <c r="AB2">
+      <c r="AN2">
         <v>-10588000000</v>
       </c>
-      <c r="AC2">
+      <c r="AO2">
         <v>-11258000000</v>
       </c>
-      <c r="AD2">
+      <c r="AQ2">
         <v>-11903000000</v>
       </c>
-      <c r="AE2">
+      <c r="AR2">
         <v>-11860000000</v>
       </c>
-      <c r="AF2">
+      <c r="AS2">
         <v>-12447000000</v>
       </c>
-      <c r="AG2">
+      <c r="AT2">
         <v>-13556000000</v>
       </c>
-      <c r="AH2">
+      <c r="AU2">
         <v>-13808000000</v>
       </c>
-      <c r="AI2">
+      <c r="AV2">
         <v>-15151000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:48">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="E3">
         <v>2739000000</v>
       </c>
-      <c r="C3">
+      <c r="G3">
         <v>3515000000</v>
       </c>
-      <c r="D3">
+      <c r="H3">
         <v>3931000000</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>3979000000</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>4207000000</v>
       </c>
-      <c r="G3">
+      <c r="L3">
         <v>4877000000</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>5061000000</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>5426000000</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <v>3524000000</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <v>6732000000</v>
       </c>
-      <c r="L3">
+      <c r="S3">
         <v>9401000000</v>
       </c>
-      <c r="M3">
+      <c r="T3">
         <v>3195000000</v>
       </c>
-      <c r="N3">
+      <c r="U3">
         <v>9192000000</v>
       </c>
-      <c r="O3">
+      <c r="W3">
         <v>6657000000</v>
       </c>
-      <c r="P3">
+      <c r="X3">
         <v>9947000000</v>
       </c>
-      <c r="Q3">
+      <c r="Y3">
         <v>7068000000</v>
       </c>
-      <c r="R3">
+      <c r="AA3">
         <v>6836000000</v>
       </c>
-      <c r="S3">
+      <c r="AB3">
         <v>6959000000</v>
       </c>
-      <c r="T3">
+      <c r="AC3">
         <v>11247000000</v>
       </c>
-      <c r="U3">
+      <c r="AE3">
         <v>17930000000</v>
       </c>
-      <c r="V3">
+      <c r="AF3">
         <v>18525000000</v>
       </c>
-      <c r="W3">
+      <c r="AG3">
         <v>18936000000</v>
       </c>
-      <c r="X3">
+      <c r="AI3">
         <v>16436000000</v>
       </c>
-      <c r="Y3">
+      <c r="AJ3">
         <v>16002000000</v>
       </c>
-      <c r="Z3">
+      <c r="AK3">
         <v>13910000000</v>
       </c>
-      <c r="AA3">
+      <c r="AM3">
         <v>15051000000</v>
       </c>
-      <c r="AB3">
+      <c r="AN3">
         <v>18368000000</v>
       </c>
-      <c r="AC3">
+      <c r="AO3">
         <v>19689000000</v>
       </c>
-      <c r="AD3">
+      <c r="AQ3">
         <v>23662000000</v>
       </c>
-      <c r="AE3">
+      <c r="AR3">
         <v>23619000000</v>
       </c>
-      <c r="AF3">
+      <c r="AS3">
         <v>26301000000</v>
       </c>
-      <c r="AG3">
+      <c r="AT3">
         <v>34540000000</v>
       </c>
-      <c r="AH3">
+      <c r="AU3">
         <v>28196000000</v>
       </c>
-      <c r="AI3">
+      <c r="AV3">
         <v>34979000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="E4">
         <v>3724000000</v>
       </c>
-      <c r="C4">
+      <c r="G4">
         <v>4447000000</v>
       </c>
-      <c r="D4">
+      <c r="H4">
         <v>4825000000</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>4708000000</v>
       </c>
-      <c r="F4">
+      <c r="K4">
         <v>5342000000</v>
       </c>
-      <c r="G4">
+      <c r="L4">
         <v>5968000000</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>5767000000</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>6568000000</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <v>4132000000</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <v>7782000000</v>
       </c>
-      <c r="L4">
+      <c r="S4">
         <v>7633000000</v>
       </c>
-      <c r="M4">
+      <c r="T4">
         <v>3045000000</v>
       </c>
-      <c r="N4">
+      <c r="U4">
         <v>8625000000</v>
       </c>
-      <c r="O4">
+      <c r="W4">
         <v>6608000000</v>
       </c>
-      <c r="P4">
+      <c r="X4">
         <v>9180000000</v>
       </c>
-      <c r="Q4">
+      <c r="Y4">
         <v>9177000000</v>
       </c>
-      <c r="R4">
+      <c r="AA4">
         <v>7977000000</v>
       </c>
-      <c r="S4">
+      <c r="AB4">
         <v>6383000000</v>
       </c>
-      <c r="T4">
+      <c r="AC4">
         <v>11213000000</v>
       </c>
-      <c r="U4">
+      <c r="AE4">
         <v>16437000000</v>
       </c>
-      <c r="V4">
+      <c r="AF4">
         <v>19361000000</v>
       </c>
-      <c r="W4">
+      <c r="AG4">
         <v>21031000000</v>
       </c>
-      <c r="X4">
+      <c r="AI4">
         <v>20094000000</v>
       </c>
-      <c r="Y4">
+      <c r="AJ4">
         <v>19453000000</v>
       </c>
-      <c r="Z4">
+      <c r="AK4">
         <v>17135000000</v>
       </c>
-      <c r="AA4">
+      <c r="AM4">
         <v>17415000000</v>
       </c>
-      <c r="AB4">
+      <c r="AN4">
         <v>21838000000</v>
       </c>
-      <c r="AC4">
+      <c r="AO4">
         <v>21343000000</v>
       </c>
-      <c r="AD4">
+      <c r="AQ4">
         <v>25472000000</v>
       </c>
-      <c r="AE4">
+      <c r="AR4">
         <v>27425000000</v>
       </c>
-      <c r="AF4">
+      <c r="AS4">
         <v>28521000000</v>
       </c>
-      <c r="AG4">
+      <c r="AT4">
         <v>30606000000</v>
       </c>
-      <c r="AH4">
+      <c r="AU4">
         <v>31271000000</v>
       </c>
-      <c r="AI4">
+      <c r="AV4">
         <v>31228000000</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="G5">
         <v>-496000000</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>-2911000000</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>-1674000000</v>
       </c>
-      <c r="L5">
+      <c r="S5">
         <v>-2018000000</v>
       </c>
-      <c r="O5">
+      <c r="W5">
         <v>-4183000000</v>
       </c>
-      <c r="R5">
+      <c r="AA5">
         <v>-8186000000</v>
       </c>
-      <c r="U5">
+      <c r="AE5">
         <v>-13606000000</v>
       </c>
-      <c r="X5">
+      <c r="AI5">
         <v>-16214000000</v>
       </c>
-      <c r="AA5">
+      <c r="AM5">
         <v>-16568000000</v>
       </c>
-      <c r="AD5">
+      <c r="AQ5">
         <v>-19714000000</v>
       </c>
-      <c r="AG5">
+      <c r="AT5">
         <v>-20201000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
+        <v>52</v>
+      </c>
+      <c r="G6">
         <v>-1371000000</v>
       </c>
-      <c r="F6">
+      <c r="K6">
         <v>-1438000000</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>5214000000</v>
       </c>
-      <c r="L6">
+      <c r="S6">
         <v>1943000000</v>
       </c>
-      <c r="O6">
+      <c r="W6">
         <v>2447000000</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:48">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B7">
+        <v>14778000000</v>
+      </c>
+      <c r="C7">
+        <v>18898000000</v>
+      </c>
+      <c r="D7">
+        <v>18347000000</v>
+      </c>
+      <c r="E7">
+        <v>15605000000</v>
+      </c>
+      <c r="F7">
+        <v>16549000000</v>
+      </c>
+      <c r="G7">
+        <v>16976000000</v>
+      </c>
+      <c r="H7">
+        <v>18453000000</v>
+      </c>
+      <c r="I7">
+        <v>18068000000</v>
+      </c>
+      <c r="J7">
+        <v>12918000000</v>
+      </c>
+      <c r="K7">
+        <v>15111000000</v>
+      </c>
+      <c r="L7">
+        <v>13627000000</v>
+      </c>
+      <c r="M7">
+        <v>9406000000</v>
+      </c>
+      <c r="N7">
+        <v>10715000000</v>
+      </c>
+      <c r="O7">
+        <v>18132000000</v>
+      </c>
+      <c r="P7">
+        <v>15711000000</v>
+      </c>
+      <c r="Q7">
+        <v>10581000000</v>
+      </c>
+      <c r="R7">
+        <v>16701000000</v>
+      </c>
+      <c r="S7">
+        <v>12658000000</v>
+      </c>
+      <c r="T7">
+        <v>14148000000</v>
+      </c>
+      <c r="U7">
+        <v>13443000000</v>
+      </c>
+      <c r="V7">
+        <v>18498000000</v>
+      </c>
+      <c r="W7">
+        <v>19148000000</v>
+      </c>
+      <c r="X7">
+        <v>16587000000</v>
+      </c>
+      <c r="Y7">
+        <v>16032000000</v>
+      </c>
+      <c r="Z7">
+        <v>26465000000</v>
+      </c>
+      <c r="AA7">
+        <v>19644000000</v>
+      </c>
+      <c r="AB7">
+        <v>17742000000</v>
+      </c>
+      <c r="AC7">
+        <v>20129000000</v>
+      </c>
+      <c r="AD7">
+        <v>20945000000</v>
+      </c>
+      <c r="AE7">
+        <v>26622000000</v>
+      </c>
+      <c r="AF7">
+        <v>23630000000</v>
+      </c>
+      <c r="AG7">
+        <v>23719000000</v>
+      </c>
+      <c r="AH7">
+        <v>21879000000</v>
+      </c>
+      <c r="AI7">
+        <v>20886000000</v>
+      </c>
+      <c r="AJ7">
+        <v>17936000000</v>
+      </c>
+      <c r="AK7">
+        <v>21984000000</v>
+      </c>
+      <c r="AL7">
+        <v>24048000000</v>
+      </c>
+      <c r="AM7">
+        <v>25924000000</v>
+      </c>
+      <c r="AN7">
+        <v>25929000000</v>
+      </c>
+      <c r="AO7">
+        <v>30702000000</v>
+      </c>
+      <c r="AP7">
+        <v>23466000000</v>
+      </c>
+      <c r="AQ7">
+        <v>24493000000</v>
+      </c>
+      <c r="AR7">
+        <v>27225000000</v>
+      </c>
+      <c r="AS7">
+        <v>19959000000</v>
+      </c>
+      <c r="AT7">
+        <v>23264000000</v>
+      </c>
+      <c r="AU7">
+        <v>21036000000</v>
+      </c>
+      <c r="AV7">
+        <v>23090000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
         <v>16523000000</v>
       </c>
-      <c r="C7">
+      <c r="G8">
         <v>17258000000</v>
       </c>
-      <c r="D7">
+      <c r="H8">
         <v>17727000000</v>
       </c>
-      <c r="E7">
+      <c r="I8">
         <v>18675000000</v>
       </c>
-      <c r="F7">
+      <c r="K8">
         <v>20257000000</v>
       </c>
-      <c r="G7">
+      <c r="L8">
         <v>21500000000</v>
       </c>
-      <c r="H7">
+      <c r="M8">
         <v>22451000000</v>
       </c>
-      <c r="I7">
+      <c r="O8">
         <v>24750000000</v>
       </c>
-      <c r="J7">
+      <c r="P8">
         <v>26010000000</v>
       </c>
-      <c r="K7">
+      <c r="Q8">
         <v>27772000000</v>
       </c>
-      <c r="L7">
+      <c r="S8">
         <v>31146000000</v>
       </c>
-      <c r="M7">
+      <c r="T8">
         <v>32657000000</v>
       </c>
-      <c r="N7">
+      <c r="U8">
         <v>33740000000</v>
       </c>
-      <c r="O7">
+      <c r="W8">
         <v>36339000000</v>
       </c>
-      <c r="P7">
+      <c r="X8">
         <v>38944000000</v>
       </c>
-      <c r="Q7">
+      <c r="Y8">
         <v>40499000000</v>
       </c>
-      <c r="R7">
+      <c r="AA8">
         <v>41159000000</v>
       </c>
-      <c r="S7">
+      <c r="AB8">
         <v>38297000000</v>
       </c>
-      <c r="T7">
+      <c r="AC8">
         <v>46173000000</v>
       </c>
-      <c r="U7">
+      <c r="AE8">
         <v>55314000000</v>
       </c>
-      <c r="V7">
+      <c r="AF8">
         <v>61880000000</v>
       </c>
-      <c r="W7">
+      <c r="AG8">
         <v>65118000000</v>
       </c>
-      <c r="X7">
+      <c r="AI8">
         <v>68011000000</v>
       </c>
-      <c r="Y7">
+      <c r="AJ8">
         <v>69685000000</v>
       </c>
-      <c r="Z7">
+      <c r="AK8">
         <v>69092000000</v>
       </c>
-      <c r="AA7">
+      <c r="AM8">
         <v>69787000000</v>
       </c>
-      <c r="AB7">
+      <c r="AN8">
         <v>74604000000</v>
       </c>
-      <c r="AC7">
+      <c r="AO8">
         <v>76693000000</v>
       </c>
-      <c r="AD7">
+      <c r="AQ8">
         <v>80539000000</v>
       </c>
-      <c r="AE7">
+      <c r="AR8">
         <v>84742000000</v>
       </c>
-      <c r="AF7">
+      <c r="AS8">
         <v>88268000000</v>
       </c>
-      <c r="AG7">
+      <c r="AT8">
         <v>90234000000</v>
       </c>
-      <c r="AH7">
+      <c r="AU8">
         <v>96428000000</v>
       </c>
-      <c r="AI7">
+      <c r="AV8">
         <v>102346000000</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
+    <row r="9" spans="1:48">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <v>491000000</v>
+      </c>
+      <c r="J9">
+        <v>268000000</v>
+      </c>
+      <c r="M9">
+        <v>559000000</v>
+      </c>
+      <c r="N9">
+        <v>749000000</v>
+      </c>
+      <c r="O9">
+        <v>280000000</v>
+      </c>
+      <c r="P9">
+        <v>398000000</v>
+      </c>
+      <c r="Q9">
+        <v>765000000</v>
+      </c>
+      <c r="R9">
+        <v>1107000000</v>
+      </c>
+      <c r="S9">
+        <v>636000000</v>
+      </c>
+      <c r="T9">
+        <v>698000000</v>
+      </c>
+      <c r="U9">
+        <v>1212000000</v>
+      </c>
+      <c r="V9">
+        <v>999000000</v>
+      </c>
+      <c r="W9">
+        <v>1053000000</v>
+      </c>
+      <c r="X9">
+        <v>964000000</v>
+      </c>
+      <c r="Y9">
+        <v>1401000000</v>
+      </c>
+      <c r="Z9">
+        <v>728000000</v>
+      </c>
+      <c r="AA9">
+        <v>889000000</v>
+      </c>
+      <c r="AB9">
+        <v>815000000</v>
+      </c>
+      <c r="AC9">
+        <v>835000000</v>
+      </c>
+      <c r="AD9">
+        <v>1170000000</v>
+      </c>
+      <c r="AE9">
+        <v>888000000</v>
+      </c>
+      <c r="AF9">
+        <v>907000000</v>
+      </c>
+      <c r="AG9">
+        <v>1278000000</v>
+      </c>
+      <c r="AH9">
+        <v>2670000000</v>
+      </c>
+      <c r="AI9">
+        <v>1369000000</v>
+      </c>
+      <c r="AJ9">
+        <v>1980000000</v>
+      </c>
+      <c r="AK9">
+        <v>3156000000</v>
+      </c>
+      <c r="AM9">
+        <v>2315000000</v>
+      </c>
+      <c r="AN9">
+        <v>2231000000</v>
+      </c>
+      <c r="AO9">
+        <v>2957000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
+        <v>9383000000</v>
+      </c>
+      <c r="F10">
+        <v>11556000000</v>
+      </c>
+      <c r="I10">
+        <v>9749000000</v>
+      </c>
+      <c r="J10">
+        <v>14137000000</v>
+      </c>
+      <c r="K10">
+        <v>10818000000</v>
+      </c>
+      <c r="L10">
+        <v>11686000000</v>
+      </c>
+      <c r="M10">
+        <v>11979000000</v>
+      </c>
+      <c r="N10">
+        <v>18336000000</v>
+      </c>
+      <c r="O10">
+        <v>12913000000</v>
+      </c>
+      <c r="P10">
+        <v>14003000000</v>
+      </c>
+      <c r="Q10">
+        <v>15295000000</v>
+      </c>
+      <c r="R10">
+        <v>20838000000</v>
+      </c>
+      <c r="S10">
+        <v>16777000000</v>
+      </c>
+      <c r="T10">
+        <v>17043000000</v>
+      </c>
+      <c r="U10">
+        <v>17897000000</v>
+      </c>
+      <c r="V10">
+        <v>25326000000</v>
+      </c>
+      <c r="W10">
+        <v>19149000000</v>
+      </c>
+      <c r="X10">
+        <v>20965000000</v>
+      </c>
+      <c r="Y10">
+        <v>20889000000</v>
+      </c>
+      <c r="Z10">
+        <v>30930000000</v>
+      </c>
+      <c r="AA10">
+        <v>21825000000</v>
+      </c>
+      <c r="AB10">
+        <v>21201000000</v>
+      </c>
+      <c r="AC10">
+        <v>24925000000</v>
+      </c>
+      <c r="AD10">
+        <v>39304000000</v>
+      </c>
+      <c r="AE10">
+        <v>28006000000</v>
+      </c>
+      <c r="AF10">
+        <v>31967000000</v>
+      </c>
+      <c r="AG10">
+        <v>34047000000</v>
+      </c>
+      <c r="AH10">
+        <v>40258000000</v>
+      </c>
+      <c r="AI10">
+        <v>34703000000</v>
+      </c>
+      <c r="AJ10">
+        <v>35707000000</v>
+      </c>
+      <c r="AK10">
+        <v>34697000000</v>
+      </c>
+      <c r="AL10">
+        <v>47964000000</v>
+      </c>
+      <c r="AM10">
+        <v>36036000000</v>
+      </c>
+      <c r="AN10">
+        <v>38804000000</v>
+      </c>
+      <c r="AO10">
+        <v>41020000000</v>
+      </c>
+      <c r="AP10">
+        <v>52340000000</v>
+      </c>
+      <c r="AQ10">
+        <v>44552000000</v>
+      </c>
+      <c r="AR10">
+        <v>47087000000</v>
+      </c>
+      <c r="AS10">
+        <v>49104000000</v>
+      </c>
+      <c r="AT10">
+        <v>51000000000</v>
+      </c>
+      <c r="AU10">
+        <v>55048000000</v>
+      </c>
+      <c r="AV10">
+        <v>57148000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>50531000000</v>
+      </c>
+      <c r="F11">
+        <v>57347000000</v>
+      </c>
+      <c r="I11">
+        <v>56178000000</v>
+      </c>
+      <c r="J11">
+        <v>62089000000</v>
+      </c>
+      <c r="K11">
+        <v>58792000000</v>
+      </c>
+      <c r="L11">
+        <v>60054000000</v>
+      </c>
+      <c r="M11">
+        <v>61402000000</v>
+      </c>
+      <c r="N11">
+        <v>72987000000</v>
+      </c>
+      <c r="O11">
+        <v>63962000000</v>
+      </c>
+      <c r="P11">
+        <v>66235000000</v>
+      </c>
+      <c r="Q11">
+        <v>70191000000</v>
+      </c>
+      <c r="R11">
+        <v>97116000000</v>
+      </c>
+      <c r="S11">
+        <v>83174000000</v>
+      </c>
+      <c r="T11">
+        <v>87453000000</v>
+      </c>
+      <c r="U11">
+        <v>91836000000</v>
+      </c>
+      <c r="V11">
+        <v>123331000000</v>
+      </c>
+      <c r="W11">
+        <v>107142000000</v>
+      </c>
+      <c r="X11">
+        <v>109664000000</v>
+      </c>
+      <c r="Y11">
+        <v>114686000000</v>
+      </c>
+      <c r="AA11">
+        <v>126385000000</v>
+      </c>
+      <c r="AB11">
+        <v>129423000000</v>
+      </c>
+      <c r="AC11">
+        <v>134874000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>78656000000</v>
+      </c>
+      <c r="F12">
+        <v>90114000000</v>
+      </c>
+      <c r="I12">
+        <v>88103000000</v>
+      </c>
+      <c r="J12">
+        <v>105408000000</v>
+      </c>
+      <c r="K12">
+        <v>90955000000</v>
+      </c>
+      <c r="L12">
+        <v>94238000000</v>
+      </c>
+      <c r="M12">
+        <v>98546000000</v>
+      </c>
+      <c r="N12">
+        <v>124308000000</v>
+      </c>
+      <c r="O12">
+        <v>108794000000</v>
+      </c>
+      <c r="P12">
+        <v>112386000000</v>
+      </c>
+      <c r="Q12">
+        <v>119345000000</v>
+      </c>
+      <c r="R12">
+        <v>135676000000</v>
+      </c>
+      <c r="S12">
+        <v>123761000000</v>
+      </c>
+      <c r="T12">
+        <v>124157000000</v>
+      </c>
+      <c r="U12">
+        <v>129702000000</v>
+      </c>
+      <c r="V12">
+        <v>152578000000</v>
+      </c>
+      <c r="W12">
+        <v>138207000000</v>
+      </c>
+      <c r="X12">
+        <v>147437000000</v>
+      </c>
+      <c r="Y12">
+        <v>148358000000</v>
+      </c>
+      <c r="Z12">
+        <v>174296000000</v>
+      </c>
+      <c r="AA12">
+        <v>147018000000</v>
+      </c>
+      <c r="AB12">
+        <v>149069000000</v>
+      </c>
+      <c r="AC12">
+        <v>164369000000</v>
+      </c>
+      <c r="AD12">
+        <v>188143000000</v>
+      </c>
+      <c r="AE12">
+        <v>172137000000</v>
+      </c>
+      <c r="AF12">
+        <v>175697000000</v>
+      </c>
+      <c r="AG12">
+        <v>184110000000</v>
+      </c>
+      <c r="AH12">
+        <v>164795000000</v>
+      </c>
+      <c r="AI12">
+        <v>177853000000</v>
+      </c>
+      <c r="AJ12">
+        <v>172371000000</v>
+      </c>
+      <c r="AK12">
+        <v>166109000000</v>
+      </c>
+      <c r="AL12">
+        <v>171530000000</v>
+      </c>
+      <c r="AM12">
+        <v>161985000000</v>
+      </c>
+      <c r="AN12">
+        <v>168788000000</v>
+      </c>
+      <c r="AO12">
+        <v>176310000000</v>
+      </c>
+      <c r="AP12">
+        <v>163711000000</v>
+      </c>
+      <c r="AQ12">
+        <v>165471000000</v>
+      </c>
+      <c r="AR12">
+        <v>161995000000</v>
+      </c>
+      <c r="AS12">
+        <v>157541000000</v>
+      </c>
+      <c r="AT12">
+        <v>162052000000</v>
+      </c>
+      <c r="AU12">
+        <v>166216000000</v>
+      </c>
+      <c r="AV12">
+        <v>173947000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13">
+        <v>27130000000</v>
+      </c>
+      <c r="J13">
+        <v>28461000000</v>
+      </c>
+      <c r="K13">
+        <v>26178000000</v>
+      </c>
+      <c r="L13">
+        <v>26413000000</v>
+      </c>
+      <c r="M13">
+        <v>25845000000</v>
+      </c>
+      <c r="N13">
+        <v>44793000000</v>
+      </c>
+      <c r="O13">
+        <v>27807000000</v>
+      </c>
+      <c r="P13">
+        <v>30335000000</v>
+      </c>
+      <c r="Q13">
+        <v>32436000000</v>
+      </c>
+      <c r="R13">
+        <v>55164000000</v>
+      </c>
+      <c r="S13">
+        <v>46110000000</v>
+      </c>
+      <c r="T13">
+        <v>49610000000</v>
+      </c>
+      <c r="U13">
+        <v>51698000000</v>
+      </c>
+      <c r="V13">
+        <v>74467000000</v>
+      </c>
+      <c r="W13">
+        <v>61877000000</v>
+      </c>
+      <c r="X13">
+        <v>64909000000</v>
+      </c>
+      <c r="Y13">
+        <v>68075000000</v>
+      </c>
+      <c r="Z13">
+        <v>97072000000</v>
+      </c>
+      <c r="AA13">
+        <v>69744000000</v>
+      </c>
+      <c r="AB13">
+        <v>71170000000</v>
+      </c>
+      <c r="AC13">
+        <v>86323000000</v>
+      </c>
+      <c r="AD13">
+        <v>107633000000</v>
+      </c>
+      <c r="AE13">
+        <v>97082000000</v>
+      </c>
+      <c r="AF13">
+        <v>97822000000</v>
+      </c>
+      <c r="AG13">
+        <v>102836000000</v>
+      </c>
+      <c r="AH13">
+        <v>109120000000</v>
+      </c>
+      <c r="AI13">
+        <v>103092000000</v>
+      </c>
+      <c r="AJ13">
+        <v>99766000000</v>
+      </c>
+      <c r="AK13">
+        <v>104629000000</v>
+      </c>
+      <c r="AL13">
+        <v>119013000000</v>
+      </c>
+      <c r="AM13">
+        <v>108597000000</v>
+      </c>
+      <c r="AN13">
+        <v>115903000000</v>
+      </c>
+      <c r="AO13">
+        <v>123509000000</v>
+      </c>
+      <c r="AP13">
+        <v>125172000000</v>
+      </c>
+      <c r="AQ13">
+        <v>114506000000</v>
+      </c>
+      <c r="AR13">
+        <v>114017000000</v>
+      </c>
+      <c r="AS13">
+        <v>116147000000</v>
+      </c>
+      <c r="AT13">
+        <v>130107000000</v>
+      </c>
+      <c r="AU13">
+        <v>139137000000</v>
+      </c>
+      <c r="AV13">
+        <v>149602000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>16779000000</v>
+      </c>
+      <c r="F14">
+        <v>19310000000</v>
+      </c>
+      <c r="I14">
+        <v>18457000000</v>
+      </c>
+      <c r="J14">
+        <v>16756000000</v>
+      </c>
+      <c r="K14">
+        <v>17684000000</v>
+      </c>
+      <c r="L14">
+        <v>17341000000</v>
+      </c>
+      <c r="M14">
+        <v>14323000000</v>
+      </c>
+      <c r="N14">
+        <v>24183000000</v>
+      </c>
+      <c r="O14">
+        <v>15256000000</v>
+      </c>
+      <c r="P14">
+        <v>18685000000</v>
+      </c>
+      <c r="Q14">
+        <v>20693000000</v>
+      </c>
+      <c r="R14">
+        <v>34620000000</v>
+      </c>
+      <c r="S14">
+        <v>25394000000</v>
+      </c>
+      <c r="T14">
+        <v>29903000000</v>
+      </c>
+      <c r="U14">
+        <v>31301000000</v>
+      </c>
+      <c r="V14">
+        <v>45221000000</v>
+      </c>
+      <c r="W14">
+        <v>34910000000</v>
+      </c>
+      <c r="X14">
+        <v>37000000000</v>
+      </c>
+      <c r="Y14">
+        <v>39224000000</v>
+      </c>
+      <c r="Z14">
+        <v>56834000000</v>
+      </c>
+      <c r="AA14">
+        <v>40189000000</v>
+      </c>
+      <c r="AB14">
+        <v>43658000000</v>
+      </c>
+      <c r="AC14">
+        <v>48200000000</v>
+      </c>
+      <c r="AD14">
+        <v>64254000000</v>
+      </c>
+      <c r="AE14">
+        <v>55453000000</v>
+      </c>
+      <c r="AF14">
+        <v>55741000000</v>
+      </c>
+      <c r="AG14">
+        <v>61782000000</v>
+      </c>
+      <c r="AH14">
+        <v>69300000000</v>
+      </c>
+      <c r="AI14">
+        <v>61948000000</v>
+      </c>
+      <c r="AJ14">
+        <v>61354000000</v>
+      </c>
+      <c r="AK14">
+        <v>65979000000</v>
+      </c>
+      <c r="AL14">
+        <v>81814000000</v>
+      </c>
+      <c r="AM14">
+        <v>68854000000</v>
+      </c>
+      <c r="AN14">
+        <v>77709000000</v>
+      </c>
+      <c r="AO14">
+        <v>86295000000</v>
+      </c>
+      <c r="AP14">
+        <v>89122000000</v>
+      </c>
+      <c r="AQ14">
+        <v>76997000000</v>
+      </c>
+      <c r="AR14">
+        <v>77913000000</v>
+      </c>
+      <c r="AS14">
+        <v>80803000000</v>
+      </c>
+      <c r="AT14">
+        <v>91654000000</v>
+      </c>
+      <c r="AU14">
+        <v>87310000000</v>
+      </c>
+      <c r="AV14">
+        <v>99550000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15">
+        <v>129187000000</v>
+      </c>
+      <c r="F15">
+        <v>147461000000</v>
+      </c>
+      <c r="I15">
+        <v>144281000000</v>
+      </c>
+      <c r="J15">
+        <v>167497000000</v>
+      </c>
+      <c r="K15">
+        <v>149747000000</v>
+      </c>
+      <c r="L15">
+        <v>154292000000</v>
+      </c>
+      <c r="M15">
+        <v>159948000000</v>
+      </c>
+      <c r="N15">
+        <v>197295000000</v>
+      </c>
+      <c r="O15">
+        <v>172756000000</v>
+      </c>
+      <c r="P15">
+        <v>178621000000</v>
+      </c>
+      <c r="Q15">
+        <v>189536000000</v>
+      </c>
+      <c r="R15">
+        <v>232792000000</v>
+      </c>
+      <c r="S15">
+        <v>206935000000</v>
+      </c>
+      <c r="T15">
+        <v>211610000000</v>
+      </c>
+      <c r="U15">
+        <v>221538000000</v>
+      </c>
+      <c r="V15">
+        <v>275909000000</v>
+      </c>
+      <c r="W15">
+        <v>245349000000</v>
+      </c>
+      <c r="X15">
+        <v>257101000000</v>
+      </c>
+      <c r="Y15">
+        <v>263044000000</v>
+      </c>
+      <c r="Z15">
+        <v>319616000000</v>
+      </c>
+      <c r="AA15">
+        <v>273403000000</v>
+      </c>
+      <c r="AB15">
+        <v>278492000000</v>
+      </c>
+      <c r="AC15">
+        <v>299243000000</v>
+      </c>
+      <c r="AD15">
+        <v>359268000000</v>
+      </c>
+      <c r="AE15">
+        <v>327095000000</v>
+      </c>
+      <c r="AF15">
+        <v>335387000000</v>
+      </c>
+      <c r="AG15">
+        <v>347403000000</v>
+      </c>
+      <c r="AH15">
+        <v>365264000000</v>
+      </c>
+      <c r="AI15">
+        <v>357096000000</v>
+      </c>
+      <c r="AJ15">
+        <v>355185000000</v>
+      </c>
+      <c r="AK15">
+        <v>358255000000</v>
+      </c>
+      <c r="AL15">
+        <v>402392000000</v>
+      </c>
+      <c r="AM15">
+        <v>369491000000</v>
+      </c>
+      <c r="AN15">
+        <v>383044000000</v>
+      </c>
+      <c r="AO15">
+        <v>396711000000</v>
+      </c>
+      <c r="AP15">
+        <v>450256000000</v>
+      </c>
+      <c r="AQ15">
+        <v>407350000000</v>
+      </c>
+      <c r="AR15">
+        <v>414770000000</v>
+      </c>
+      <c r="AS15">
+        <v>430266000000</v>
+      </c>
+      <c r="AT15">
+        <v>475374000000</v>
+      </c>
+      <c r="AU15">
+        <v>502053000000</v>
+      </c>
+      <c r="AV15">
+        <v>536469000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>71570000000</v>
+      </c>
+      <c r="C16">
+        <v>86977000000</v>
+      </c>
+      <c r="D16">
+        <v>103860000000</v>
+      </c>
+      <c r="F16">
+        <v>120331000000</v>
+      </c>
+      <c r="I16">
+        <v>116241000000</v>
+      </c>
+      <c r="J16">
+        <v>139036000000</v>
+      </c>
+      <c r="K16">
+        <v>123569000000</v>
+      </c>
+      <c r="L16">
+        <v>127879000000</v>
+      </c>
+      <c r="M16">
+        <v>134103000000</v>
+      </c>
+      <c r="N16">
+        <v>152502000000</v>
+      </c>
+      <c r="O16">
+        <v>144949000000</v>
+      </c>
+      <c r="P16">
+        <v>148286000000</v>
+      </c>
+      <c r="Q16">
+        <v>157100000000</v>
+      </c>
+      <c r="R16">
+        <v>177628000000</v>
+      </c>
+      <c r="S16">
+        <v>160825000000</v>
+      </c>
+      <c r="T16">
+        <v>162000000000</v>
+      </c>
+      <c r="U16">
+        <v>169840000000</v>
+      </c>
+      <c r="V16">
+        <v>201442000000</v>
+      </c>
+      <c r="W16">
+        <v>183472000000</v>
+      </c>
+      <c r="X16">
+        <v>192192000000</v>
+      </c>
+      <c r="Y16">
+        <v>194969000000</v>
+      </c>
+      <c r="Z16">
+        <v>222544000000</v>
+      </c>
+      <c r="AA16">
+        <v>203659000000</v>
+      </c>
+      <c r="AB16">
+        <v>207322000000</v>
+      </c>
+      <c r="AC16">
+        <v>212920000000</v>
+      </c>
+      <c r="AD16">
+        <v>251635000000</v>
+      </c>
+      <c r="AE16">
+        <v>230013000000</v>
+      </c>
+      <c r="AF16">
+        <v>237565000000</v>
+      </c>
+      <c r="AG16">
+        <v>244567000000</v>
+      </c>
+      <c r="AH16">
+        <v>256144000000</v>
+      </c>
+      <c r="AI16">
+        <v>254004000000</v>
+      </c>
+      <c r="AJ16">
+        <v>255419000000</v>
+      </c>
+      <c r="AK16">
+        <v>253626000000</v>
+      </c>
+      <c r="AL16">
+        <v>283379000000</v>
+      </c>
+      <c r="AM16">
+        <v>260894000000</v>
+      </c>
+      <c r="AN16">
+        <v>267141000000</v>
+      </c>
+      <c r="AO16">
+        <v>273202000000</v>
+      </c>
+      <c r="AP16">
+        <v>325084000000</v>
+      </c>
+      <c r="AQ16">
+        <v>292844000000</v>
+      </c>
+      <c r="AR16">
+        <v>300753000000</v>
+      </c>
+      <c r="AS16">
+        <v>314119000000</v>
+      </c>
+      <c r="AT16">
+        <v>345267000000</v>
+      </c>
+      <c r="AU16">
+        <v>362916000000</v>
+      </c>
+      <c r="AV16">
+        <v>386867000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>3225000000</v>
+      </c>
+      <c r="J17">
+        <v>4000000000</v>
+      </c>
+      <c r="N17">
+        <v>4026000000</v>
+      </c>
+      <c r="R17">
+        <v>4062000000</v>
+      </c>
+      <c r="V17">
+        <v>4685000000</v>
+      </c>
+      <c r="Z17">
+        <v>15319000000</v>
+      </c>
+      <c r="AD17">
+        <v>15440000000</v>
+      </c>
+      <c r="AH17">
+        <v>15312000000</v>
+      </c>
+      <c r="AL17">
+        <v>13000000000</v>
+      </c>
+      <c r="AP17">
+        <v>12000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18">
         <v>-7304000000</v>
       </c>
-      <c r="F8">
+      <c r="K18">
         <v>-6245000000</v>
       </c>
-      <c r="I8">
+      <c r="O18">
         <v>-2851000000</v>
       </c>
-      <c r="L8">
+      <c r="S18">
         <v>-7846000000</v>
       </c>
-      <c r="O8">
+      <c r="W18">
         <v>-5388000000</v>
       </c>
-      <c r="R8">
+      <c r="AA18">
         <v>-1847000000</v>
       </c>
-      <c r="U8">
+      <c r="AE18">
         <v>-5383000000</v>
       </c>
-      <c r="X8">
+      <c r="AI18">
         <v>-9051000000</v>
       </c>
-      <c r="AA8">
+      <c r="AM18">
         <v>-2946000000</v>
       </c>
-      <c r="AD8">
+      <c r="AQ18">
         <v>-8564000000</v>
       </c>
-      <c r="AG8">
+      <c r="AT18">
         <v>-16194000000</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9">
+    <row r="19" spans="1:46">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19">
         <v>6722000000</v>
       </c>
-      <c r="F9">
+      <c r="K19">
         <v>7658000000</v>
       </c>
-      <c r="I9">
+      <c r="O19">
         <v>9548000000</v>
       </c>
-      <c r="L9">
+      <c r="S19">
         <v>11642000000</v>
       </c>
-      <c r="O9">
+      <c r="W19">
         <v>12000000000</v>
       </c>
-      <c r="R9">
+      <c r="AA19">
         <v>11451000000</v>
       </c>
-      <c r="U9">
+      <c r="AE19">
         <v>19289000000</v>
       </c>
-      <c r="X9">
+      <c r="AI19">
         <v>25106000000</v>
       </c>
-      <c r="AA9">
+      <c r="AM19">
         <v>23509000000</v>
       </c>
-      <c r="AD9">
+      <c r="AQ19">
         <v>28848000000</v>
       </c>
-      <c r="AG9">
+      <c r="AT19">
         <v>36150000000</v>
       </c>
     </row>
@@ -1186,13 +2427,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,567 +2539,1177 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B2">
-        <v>-2655000000</v>
+        <v>14778000000</v>
       </c>
       <c r="C2">
-        <v>-2753000000</v>
+        <v>18898000000</v>
       </c>
       <c r="D2">
-        <v>-2789000000</v>
+        <v>18347000000</v>
       </c>
       <c r="E2">
-        <v>-3230000000</v>
+        <v>15605000000</v>
       </c>
       <c r="F2">
-        <v>-3367000000</v>
+        <v>16549000000</v>
       </c>
       <c r="G2">
-        <v>-3363000000</v>
+        <v>16976000000</v>
       </c>
       <c r="H2">
-        <v>-3596000000</v>
+        <v>18453000000</v>
       </c>
       <c r="I2">
-        <v>-3942000000</v>
+        <v>18068000000</v>
       </c>
       <c r="J2">
-        <v>-4172000000</v>
+        <v>12918000000</v>
       </c>
       <c r="K2">
-        <v>-4205000000</v>
+        <v>15111000000</v>
       </c>
       <c r="L2">
-        <v>-5039000000</v>
+        <v>13627000000</v>
       </c>
       <c r="M2">
-        <v>-5114000000</v>
+        <v>9406000000</v>
       </c>
       <c r="N2">
-        <v>-5232000000</v>
+        <v>10715000000</v>
       </c>
       <c r="O2">
-        <v>-6029000000</v>
+        <v>18132000000</v>
       </c>
       <c r="P2">
-        <v>-6213000000</v>
+        <v>15711000000</v>
       </c>
       <c r="Q2">
-        <v>-6554000000</v>
+        <v>10581000000</v>
       </c>
       <c r="R2">
-        <v>-6820000000</v>
+        <v>16701000000</v>
       </c>
       <c r="S2">
-        <v>-6875000000</v>
+        <v>12658000000</v>
       </c>
       <c r="T2">
-        <v>-6856000000</v>
+        <v>14148000000</v>
       </c>
       <c r="U2">
-        <v>-7485000000</v>
+        <v>13443000000</v>
       </c>
       <c r="V2">
-        <v>-7675000000</v>
+        <v>18498000000</v>
       </c>
       <c r="W2">
-        <v>-7694000000</v>
+        <v>19148000000</v>
       </c>
       <c r="X2">
-        <v>-9119000000</v>
+        <v>16587000000</v>
       </c>
       <c r="Y2">
-        <v>-9841000000</v>
+        <v>16032000000</v>
       </c>
       <c r="Z2">
-        <v>-10273000000</v>
+        <v>26465000000</v>
       </c>
       <c r="AA2">
-        <v>-11468000000</v>
+        <v>19644000000</v>
       </c>
       <c r="AB2">
-        <v>-10588000000</v>
+        <v>17742000000</v>
       </c>
       <c r="AC2">
-        <v>-11258000000</v>
+        <v>20129000000</v>
       </c>
       <c r="AD2">
-        <v>-11903000000</v>
+        <v>20945000000</v>
       </c>
       <c r="AE2">
-        <v>-11860000000</v>
+        <v>26622000000</v>
       </c>
       <c r="AF2">
-        <v>-12447000000</v>
+        <v>23630000000</v>
       </c>
       <c r="AG2">
-        <v>-13556000000</v>
+        <v>23719000000</v>
       </c>
       <c r="AH2">
-        <v>-13808000000</v>
+        <v>21879000000</v>
       </c>
       <c r="AI2">
-        <v>-15151000000</v>
+        <v>20886000000</v>
+      </c>
+      <c r="AJ2">
+        <v>17936000000</v>
+      </c>
+      <c r="AK2">
+        <v>21984000000</v>
+      </c>
+      <c r="AL2">
+        <v>24048000000</v>
+      </c>
+      <c r="AM2">
+        <v>25924000000</v>
+      </c>
+      <c r="AN2">
+        <v>25929000000</v>
+      </c>
+      <c r="AO2">
+        <v>30702000000</v>
+      </c>
+      <c r="AP2">
+        <v>23466000000</v>
+      </c>
+      <c r="AQ2">
+        <v>24493000000</v>
+      </c>
+      <c r="AR2">
+        <v>27225000000</v>
+      </c>
+      <c r="AS2">
+        <v>19959000000</v>
+      </c>
+      <c r="AT2">
+        <v>23264000000</v>
+      </c>
+      <c r="AU2">
+        <v>21036000000</v>
+      </c>
+      <c r="AV2">
+        <v>23090000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:48">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>2739000000</v>
-      </c>
-      <c r="C3">
-        <v>3515000000</v>
-      </c>
-      <c r="D3">
-        <v>3931000000</v>
-      </c>
-      <c r="E3">
-        <v>3979000000</v>
+        <v>55</v>
       </c>
       <c r="F3">
-        <v>4207000000</v>
-      </c>
-      <c r="G3">
-        <v>4877000000</v>
-      </c>
-      <c r="H3">
-        <v>5061000000</v>
-      </c>
-      <c r="I3">
-        <v>5426000000</v>
+        <v>491000000</v>
       </c>
       <c r="J3">
-        <v>3524000000</v>
-      </c>
-      <c r="K3">
-        <v>6732000000</v>
-      </c>
-      <c r="L3">
-        <v>9401000000</v>
+        <v>268000000</v>
       </c>
       <c r="M3">
-        <v>3195000000</v>
+        <v>559000000</v>
       </c>
       <c r="N3">
-        <v>9192000000</v>
+        <v>749000000</v>
       </c>
       <c r="O3">
-        <v>6657000000</v>
+        <v>280000000</v>
       </c>
       <c r="P3">
-        <v>9947000000</v>
+        <v>398000000</v>
       </c>
       <c r="Q3">
-        <v>7068000000</v>
+        <v>765000000</v>
       </c>
       <c r="R3">
-        <v>6836000000</v>
+        <v>1107000000</v>
       </c>
       <c r="S3">
-        <v>6959000000</v>
+        <v>636000000</v>
       </c>
       <c r="T3">
-        <v>11247000000</v>
+        <v>698000000</v>
       </c>
       <c r="U3">
-        <v>17930000000</v>
+        <v>1212000000</v>
       </c>
       <c r="V3">
-        <v>18525000000</v>
+        <v>999000000</v>
       </c>
       <c r="W3">
-        <v>18936000000</v>
+        <v>1053000000</v>
       </c>
       <c r="X3">
-        <v>16436000000</v>
+        <v>964000000</v>
       </c>
       <c r="Y3">
-        <v>16002000000</v>
+        <v>1401000000</v>
       </c>
       <c r="Z3">
-        <v>13910000000</v>
+        <v>728000000</v>
       </c>
       <c r="AA3">
-        <v>15051000000</v>
+        <v>889000000</v>
       </c>
       <c r="AB3">
-        <v>18368000000</v>
+        <v>815000000</v>
       </c>
       <c r="AC3">
-        <v>19689000000</v>
+        <v>835000000</v>
       </c>
       <c r="AD3">
-        <v>23662000000</v>
+        <v>1170000000</v>
       </c>
       <c r="AE3">
-        <v>23619000000</v>
+        <v>888000000</v>
       </c>
       <c r="AF3">
-        <v>26301000000</v>
+        <v>907000000</v>
       </c>
       <c r="AG3">
-        <v>34540000000</v>
+        <v>1278000000</v>
       </c>
       <c r="AH3">
-        <v>28196000000</v>
+        <v>2670000000</v>
       </c>
       <c r="AI3">
-        <v>34979000000</v>
+        <v>1369000000</v>
+      </c>
+      <c r="AJ3">
+        <v>1980000000</v>
+      </c>
+      <c r="AK3">
+        <v>3156000000</v>
+      </c>
+      <c r="AM3">
+        <v>2315000000</v>
+      </c>
+      <c r="AN3">
+        <v>2231000000</v>
+      </c>
+      <c r="AO3">
+        <v>2957000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>3724000000</v>
-      </c>
-      <c r="C4">
-        <v>4447000000</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>4825000000</v>
-      </c>
-      <c r="E4">
-        <v>4708000000</v>
+        <v>9383000000</v>
       </c>
       <c r="F4">
-        <v>5342000000</v>
-      </c>
-      <c r="G4">
-        <v>5968000000</v>
-      </c>
-      <c r="H4">
-        <v>5767000000</v>
+        <v>11556000000</v>
       </c>
       <c r="I4">
-        <v>6568000000</v>
+        <v>9749000000</v>
       </c>
       <c r="J4">
-        <v>4132000000</v>
+        <v>14137000000</v>
       </c>
       <c r="K4">
-        <v>7782000000</v>
+        <v>10818000000</v>
       </c>
       <c r="L4">
-        <v>7633000000</v>
+        <v>11686000000</v>
       </c>
       <c r="M4">
-        <v>3045000000</v>
+        <v>11979000000</v>
       </c>
       <c r="N4">
-        <v>8625000000</v>
+        <v>18336000000</v>
       </c>
       <c r="O4">
-        <v>6608000000</v>
+        <v>12913000000</v>
       </c>
       <c r="P4">
-        <v>9180000000</v>
+        <v>14003000000</v>
       </c>
       <c r="Q4">
-        <v>9177000000</v>
+        <v>15295000000</v>
       </c>
       <c r="R4">
-        <v>7977000000</v>
+        <v>20838000000</v>
       </c>
       <c r="S4">
-        <v>6383000000</v>
+        <v>16777000000</v>
       </c>
       <c r="T4">
-        <v>11213000000</v>
+        <v>17043000000</v>
       </c>
       <c r="U4">
-        <v>16437000000</v>
+        <v>17897000000</v>
       </c>
       <c r="V4">
-        <v>19361000000</v>
+        <v>25326000000</v>
       </c>
       <c r="W4">
-        <v>21031000000</v>
+        <v>19149000000</v>
       </c>
       <c r="X4">
-        <v>20094000000</v>
+        <v>20965000000</v>
       </c>
       <c r="Y4">
-        <v>19453000000</v>
+        <v>20889000000</v>
       </c>
       <c r="Z4">
-        <v>17135000000</v>
+        <v>30930000000</v>
       </c>
       <c r="AA4">
-        <v>17415000000</v>
+        <v>21825000000</v>
       </c>
       <c r="AB4">
-        <v>21838000000</v>
+        <v>21201000000</v>
       </c>
       <c r="AC4">
-        <v>21343000000</v>
+        <v>24925000000</v>
       </c>
       <c r="AD4">
-        <v>25472000000</v>
+        <v>39304000000</v>
       </c>
       <c r="AE4">
-        <v>27425000000</v>
+        <v>28006000000</v>
       </c>
       <c r="AF4">
-        <v>28521000000</v>
+        <v>31967000000</v>
       </c>
       <c r="AG4">
-        <v>30606000000</v>
+        <v>34047000000</v>
       </c>
       <c r="AH4">
-        <v>31271000000</v>
+        <v>40258000000</v>
       </c>
       <c r="AI4">
-        <v>31228000000</v>
+        <v>34703000000</v>
+      </c>
+      <c r="AJ4">
+        <v>35707000000</v>
+      </c>
+      <c r="AK4">
+        <v>34697000000</v>
+      </c>
+      <c r="AL4">
+        <v>47964000000</v>
+      </c>
+      <c r="AM4">
+        <v>36036000000</v>
+      </c>
+      <c r="AN4">
+        <v>38804000000</v>
+      </c>
+      <c r="AO4">
+        <v>41020000000</v>
+      </c>
+      <c r="AP4">
+        <v>52340000000</v>
+      </c>
+      <c r="AQ4">
+        <v>44552000000</v>
+      </c>
+      <c r="AR4">
+        <v>47087000000</v>
+      </c>
+      <c r="AS4">
+        <v>49104000000</v>
+      </c>
+      <c r="AT4">
+        <v>51000000000</v>
+      </c>
+      <c r="AU4">
+        <v>55048000000</v>
+      </c>
+      <c r="AV4">
+        <v>57148000000</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>-496000000</v>
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>50531000000</v>
       </c>
       <c r="F5">
-        <v>-2911000000</v>
+        <v>57347000000</v>
       </c>
       <c r="I5">
-        <v>-1674000000</v>
+        <v>56178000000</v>
+      </c>
+      <c r="J5">
+        <v>62089000000</v>
+      </c>
+      <c r="K5">
+        <v>58792000000</v>
       </c>
       <c r="L5">
-        <v>-2018000000</v>
+        <v>60054000000</v>
+      </c>
+      <c r="M5">
+        <v>61402000000</v>
+      </c>
+      <c r="N5">
+        <v>72987000000</v>
       </c>
       <c r="O5">
-        <v>-4183000000</v>
+        <v>63962000000</v>
+      </c>
+      <c r="P5">
+        <v>66235000000</v>
+      </c>
+      <c r="Q5">
+        <v>70191000000</v>
       </c>
       <c r="R5">
-        <v>-8186000000</v>
+        <v>97116000000</v>
+      </c>
+      <c r="S5">
+        <v>83174000000</v>
+      </c>
+      <c r="T5">
+        <v>87453000000</v>
       </c>
       <c r="U5">
-        <v>-13606000000</v>
+        <v>91836000000</v>
+      </c>
+      <c r="V5">
+        <v>123331000000</v>
+      </c>
+      <c r="W5">
+        <v>107142000000</v>
       </c>
       <c r="X5">
-        <v>-16214000000</v>
+        <v>109664000000</v>
+      </c>
+      <c r="Y5">
+        <v>114686000000</v>
       </c>
       <c r="AA5">
-        <v>-16568000000</v>
-      </c>
-      <c r="AD5">
-        <v>-19714000000</v>
-      </c>
-      <c r="AG5">
-        <v>-20201000000</v>
+        <v>126385000000</v>
+      </c>
+      <c r="AB5">
+        <v>129423000000</v>
+      </c>
+      <c r="AC5">
+        <v>134874000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>-1371000000</v>
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>78656000000</v>
       </c>
       <c r="F6">
-        <v>-1438000000</v>
+        <v>90114000000</v>
       </c>
       <c r="I6">
-        <v>5214000000</v>
+        <v>88103000000</v>
+      </c>
+      <c r="J6">
+        <v>105408000000</v>
+      </c>
+      <c r="K6">
+        <v>90955000000</v>
       </c>
       <c r="L6">
-        <v>1943000000</v>
+        <v>94238000000</v>
+      </c>
+      <c r="M6">
+        <v>98546000000</v>
+      </c>
+      <c r="N6">
+        <v>124308000000</v>
       </c>
       <c r="O6">
-        <v>2447000000</v>
+        <v>108794000000</v>
+      </c>
+      <c r="P6">
+        <v>112386000000</v>
+      </c>
+      <c r="Q6">
+        <v>119345000000</v>
+      </c>
+      <c r="R6">
+        <v>135676000000</v>
+      </c>
+      <c r="S6">
+        <v>123761000000</v>
+      </c>
+      <c r="T6">
+        <v>124157000000</v>
+      </c>
+      <c r="U6">
+        <v>129702000000</v>
+      </c>
+      <c r="V6">
+        <v>152578000000</v>
+      </c>
+      <c r="W6">
+        <v>138207000000</v>
+      </c>
+      <c r="X6">
+        <v>147437000000</v>
+      </c>
+      <c r="Y6">
+        <v>148358000000</v>
+      </c>
+      <c r="Z6">
+        <v>174296000000</v>
+      </c>
+      <c r="AA6">
+        <v>147018000000</v>
+      </c>
+      <c r="AB6">
+        <v>149069000000</v>
+      </c>
+      <c r="AC6">
+        <v>164369000000</v>
+      </c>
+      <c r="AD6">
+        <v>188143000000</v>
+      </c>
+      <c r="AE6">
+        <v>172137000000</v>
+      </c>
+      <c r="AF6">
+        <v>175697000000</v>
+      </c>
+      <c r="AG6">
+        <v>184110000000</v>
+      </c>
+      <c r="AH6">
+        <v>164795000000</v>
+      </c>
+      <c r="AI6">
+        <v>177853000000</v>
+      </c>
+      <c r="AJ6">
+        <v>172371000000</v>
+      </c>
+      <c r="AK6">
+        <v>166109000000</v>
+      </c>
+      <c r="AL6">
+        <v>171530000000</v>
+      </c>
+      <c r="AM6">
+        <v>161985000000</v>
+      </c>
+      <c r="AN6">
+        <v>168788000000</v>
+      </c>
+      <c r="AO6">
+        <v>176310000000</v>
+      </c>
+      <c r="AP6">
+        <v>163711000000</v>
+      </c>
+      <c r="AQ6">
+        <v>165471000000</v>
+      </c>
+      <c r="AR6">
+        <v>161995000000</v>
+      </c>
+      <c r="AS6">
+        <v>157541000000</v>
+      </c>
+      <c r="AT6">
+        <v>162052000000</v>
+      </c>
+      <c r="AU6">
+        <v>166216000000</v>
+      </c>
+      <c r="AV6">
+        <v>173947000000</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:48">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>16523000000</v>
-      </c>
-      <c r="C7">
-        <v>17258000000</v>
-      </c>
-      <c r="D7">
-        <v>17727000000</v>
-      </c>
-      <c r="E7">
-        <v>18675000000</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <v>20257000000</v>
-      </c>
-      <c r="G7">
-        <v>21500000000</v>
-      </c>
-      <c r="H7">
-        <v>22451000000</v>
-      </c>
-      <c r="I7">
-        <v>24750000000</v>
+        <v>27130000000</v>
       </c>
       <c r="J7">
-        <v>26010000000</v>
+        <v>28461000000</v>
       </c>
       <c r="K7">
-        <v>27772000000</v>
+        <v>26178000000</v>
       </c>
       <c r="L7">
-        <v>31146000000</v>
+        <v>26413000000</v>
       </c>
       <c r="M7">
-        <v>32657000000</v>
+        <v>25845000000</v>
       </c>
       <c r="N7">
-        <v>33740000000</v>
+        <v>44793000000</v>
       </c>
       <c r="O7">
-        <v>36339000000</v>
+        <v>27807000000</v>
       </c>
       <c r="P7">
-        <v>38944000000</v>
+        <v>30335000000</v>
       </c>
       <c r="Q7">
-        <v>40499000000</v>
+        <v>32436000000</v>
       </c>
       <c r="R7">
-        <v>41159000000</v>
+        <v>55164000000</v>
       </c>
       <c r="S7">
-        <v>38297000000</v>
+        <v>46110000000</v>
       </c>
       <c r="T7">
-        <v>46173000000</v>
+        <v>49610000000</v>
       </c>
       <c r="U7">
-        <v>55314000000</v>
+        <v>51698000000</v>
       </c>
       <c r="V7">
-        <v>61880000000</v>
+        <v>74467000000</v>
       </c>
       <c r="W7">
-        <v>65118000000</v>
+        <v>61877000000</v>
       </c>
       <c r="X7">
-        <v>68011000000</v>
+        <v>64909000000</v>
       </c>
       <c r="Y7">
-        <v>69685000000</v>
+        <v>68075000000</v>
       </c>
       <c r="Z7">
-        <v>69092000000</v>
+        <v>97072000000</v>
       </c>
       <c r="AA7">
-        <v>69787000000</v>
+        <v>69744000000</v>
       </c>
       <c r="AB7">
-        <v>74604000000</v>
+        <v>71170000000</v>
       </c>
       <c r="AC7">
-        <v>76693000000</v>
+        <v>86323000000</v>
       </c>
       <c r="AD7">
-        <v>80539000000</v>
+        <v>107633000000</v>
       </c>
       <c r="AE7">
-        <v>84742000000</v>
+        <v>97082000000</v>
       </c>
       <c r="AF7">
-        <v>88268000000</v>
+        <v>97822000000</v>
       </c>
       <c r="AG7">
-        <v>90234000000</v>
+        <v>102836000000</v>
       </c>
       <c r="AH7">
-        <v>96428000000</v>
+        <v>109120000000</v>
       </c>
       <c r="AI7">
-        <v>102346000000</v>
+        <v>103092000000</v>
+      </c>
+      <c r="AJ7">
+        <v>99766000000</v>
+      </c>
+      <c r="AK7">
+        <v>104629000000</v>
+      </c>
+      <c r="AL7">
+        <v>119013000000</v>
+      </c>
+      <c r="AM7">
+        <v>108597000000</v>
+      </c>
+      <c r="AN7">
+        <v>115903000000</v>
+      </c>
+      <c r="AO7">
+        <v>123509000000</v>
+      </c>
+      <c r="AP7">
+        <v>125172000000</v>
+      </c>
+      <c r="AQ7">
+        <v>114506000000</v>
+      </c>
+      <c r="AR7">
+        <v>114017000000</v>
+      </c>
+      <c r="AS7">
+        <v>116147000000</v>
+      </c>
+      <c r="AT7">
+        <v>130107000000</v>
+      </c>
+      <c r="AU7">
+        <v>139137000000</v>
+      </c>
+      <c r="AV7">
+        <v>149602000000</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:48">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>-7304000000</v>
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>16779000000</v>
       </c>
       <c r="F8">
-        <v>-6245000000</v>
+        <v>19310000000</v>
       </c>
       <c r="I8">
-        <v>-2851000000</v>
+        <v>18457000000</v>
+      </c>
+      <c r="J8">
+        <v>16756000000</v>
+      </c>
+      <c r="K8">
+        <v>17684000000</v>
       </c>
       <c r="L8">
-        <v>-7846000000</v>
+        <v>17341000000</v>
+      </c>
+      <c r="M8">
+        <v>14323000000</v>
+      </c>
+      <c r="N8">
+        <v>24183000000</v>
       </c>
       <c r="O8">
-        <v>-5388000000</v>
+        <v>15256000000</v>
+      </c>
+      <c r="P8">
+        <v>18685000000</v>
+      </c>
+      <c r="Q8">
+        <v>20693000000</v>
       </c>
       <c r="R8">
-        <v>-1847000000</v>
+        <v>34620000000</v>
+      </c>
+      <c r="S8">
+        <v>25394000000</v>
+      </c>
+      <c r="T8">
+        <v>29903000000</v>
       </c>
       <c r="U8">
-        <v>-5383000000</v>
+        <v>31301000000</v>
+      </c>
+      <c r="V8">
+        <v>45221000000</v>
+      </c>
+      <c r="W8">
+        <v>34910000000</v>
       </c>
       <c r="X8">
-        <v>-9051000000</v>
+        <v>37000000000</v>
+      </c>
+      <c r="Y8">
+        <v>39224000000</v>
+      </c>
+      <c r="Z8">
+        <v>56834000000</v>
       </c>
       <c r="AA8">
-        <v>-2946000000</v>
+        <v>40189000000</v>
+      </c>
+      <c r="AB8">
+        <v>43658000000</v>
+      </c>
+      <c r="AC8">
+        <v>48200000000</v>
       </c>
       <c r="AD8">
-        <v>-8564000000</v>
+        <v>64254000000</v>
+      </c>
+      <c r="AE8">
+        <v>55453000000</v>
+      </c>
+      <c r="AF8">
+        <v>55741000000</v>
       </c>
       <c r="AG8">
-        <v>-16194000000</v>
+        <v>61782000000</v>
+      </c>
+      <c r="AH8">
+        <v>69300000000</v>
+      </c>
+      <c r="AI8">
+        <v>61948000000</v>
+      </c>
+      <c r="AJ8">
+        <v>61354000000</v>
+      </c>
+      <c r="AK8">
+        <v>65979000000</v>
+      </c>
+      <c r="AL8">
+        <v>81814000000</v>
+      </c>
+      <c r="AM8">
+        <v>68854000000</v>
+      </c>
+      <c r="AN8">
+        <v>77709000000</v>
+      </c>
+      <c r="AO8">
+        <v>86295000000</v>
+      </c>
+      <c r="AP8">
+        <v>89122000000</v>
+      </c>
+      <c r="AQ8">
+        <v>76997000000</v>
+      </c>
+      <c r="AR8">
+        <v>77913000000</v>
+      </c>
+      <c r="AS8">
+        <v>80803000000</v>
+      </c>
+      <c r="AT8">
+        <v>91654000000</v>
+      </c>
+      <c r="AU8">
+        <v>87310000000</v>
+      </c>
+      <c r="AV8">
+        <v>99550000000</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:48">
       <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9">
-        <v>6722000000</v>
+        <v>61</v>
+      </c>
+      <c r="D9">
+        <v>129187000000</v>
       </c>
       <c r="F9">
-        <v>7658000000</v>
+        <v>147461000000</v>
       </c>
       <c r="I9">
-        <v>9548000000</v>
+        <v>144281000000</v>
+      </c>
+      <c r="J9">
+        <v>167497000000</v>
+      </c>
+      <c r="K9">
+        <v>149747000000</v>
       </c>
       <c r="L9">
-        <v>11642000000</v>
+        <v>154292000000</v>
+      </c>
+      <c r="M9">
+        <v>159948000000</v>
+      </c>
+      <c r="N9">
+        <v>197295000000</v>
       </c>
       <c r="O9">
+        <v>172756000000</v>
+      </c>
+      <c r="P9">
+        <v>178621000000</v>
+      </c>
+      <c r="Q9">
+        <v>189536000000</v>
+      </c>
+      <c r="R9">
+        <v>232792000000</v>
+      </c>
+      <c r="S9">
+        <v>206935000000</v>
+      </c>
+      <c r="T9">
+        <v>211610000000</v>
+      </c>
+      <c r="U9">
+        <v>221538000000</v>
+      </c>
+      <c r="V9">
+        <v>275909000000</v>
+      </c>
+      <c r="W9">
+        <v>245349000000</v>
+      </c>
+      <c r="X9">
+        <v>257101000000</v>
+      </c>
+      <c r="Y9">
+        <v>263044000000</v>
+      </c>
+      <c r="Z9">
+        <v>319616000000</v>
+      </c>
+      <c r="AA9">
+        <v>273403000000</v>
+      </c>
+      <c r="AB9">
+        <v>278492000000</v>
+      </c>
+      <c r="AC9">
+        <v>299243000000</v>
+      </c>
+      <c r="AD9">
+        <v>359268000000</v>
+      </c>
+      <c r="AE9">
+        <v>327095000000</v>
+      </c>
+      <c r="AF9">
+        <v>335387000000</v>
+      </c>
+      <c r="AG9">
+        <v>347403000000</v>
+      </c>
+      <c r="AH9">
+        <v>365264000000</v>
+      </c>
+      <c r="AI9">
+        <v>357096000000</v>
+      </c>
+      <c r="AJ9">
+        <v>355185000000</v>
+      </c>
+      <c r="AK9">
+        <v>358255000000</v>
+      </c>
+      <c r="AL9">
+        <v>402392000000</v>
+      </c>
+      <c r="AM9">
+        <v>369491000000</v>
+      </c>
+      <c r="AN9">
+        <v>383044000000</v>
+      </c>
+      <c r="AO9">
+        <v>396711000000</v>
+      </c>
+      <c r="AP9">
+        <v>450256000000</v>
+      </c>
+      <c r="AQ9">
+        <v>407350000000</v>
+      </c>
+      <c r="AR9">
+        <v>414770000000</v>
+      </c>
+      <c r="AS9">
+        <v>430266000000</v>
+      </c>
+      <c r="AT9">
+        <v>475374000000</v>
+      </c>
+      <c r="AU9">
+        <v>502053000000</v>
+      </c>
+      <c r="AV9">
+        <v>536469000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>71570000000</v>
+      </c>
+      <c r="C10">
+        <v>86977000000</v>
+      </c>
+      <c r="D10">
+        <v>103860000000</v>
+      </c>
+      <c r="F10">
+        <v>120331000000</v>
+      </c>
+      <c r="I10">
+        <v>116241000000</v>
+      </c>
+      <c r="J10">
+        <v>139036000000</v>
+      </c>
+      <c r="K10">
+        <v>123569000000</v>
+      </c>
+      <c r="L10">
+        <v>127879000000</v>
+      </c>
+      <c r="M10">
+        <v>134103000000</v>
+      </c>
+      <c r="N10">
+        <v>152502000000</v>
+      </c>
+      <c r="O10">
+        <v>144949000000</v>
+      </c>
+      <c r="P10">
+        <v>148286000000</v>
+      </c>
+      <c r="Q10">
+        <v>157100000000</v>
+      </c>
+      <c r="R10">
+        <v>177628000000</v>
+      </c>
+      <c r="S10">
+        <v>160825000000</v>
+      </c>
+      <c r="T10">
+        <v>162000000000</v>
+      </c>
+      <c r="U10">
+        <v>169840000000</v>
+      </c>
+      <c r="V10">
+        <v>201442000000</v>
+      </c>
+      <c r="W10">
+        <v>183472000000</v>
+      </c>
+      <c r="X10">
+        <v>192192000000</v>
+      </c>
+      <c r="Y10">
+        <v>194969000000</v>
+      </c>
+      <c r="Z10">
+        <v>222544000000</v>
+      </c>
+      <c r="AA10">
+        <v>203659000000</v>
+      </c>
+      <c r="AB10">
+        <v>207322000000</v>
+      </c>
+      <c r="AC10">
+        <v>212920000000</v>
+      </c>
+      <c r="AD10">
+        <v>251635000000</v>
+      </c>
+      <c r="AE10">
+        <v>230013000000</v>
+      </c>
+      <c r="AF10">
+        <v>237565000000</v>
+      </c>
+      <c r="AG10">
+        <v>244567000000</v>
+      </c>
+      <c r="AH10">
+        <v>256144000000</v>
+      </c>
+      <c r="AI10">
+        <v>254004000000</v>
+      </c>
+      <c r="AJ10">
+        <v>255419000000</v>
+      </c>
+      <c r="AK10">
+        <v>253626000000</v>
+      </c>
+      <c r="AL10">
+        <v>283379000000</v>
+      </c>
+      <c r="AM10">
+        <v>260894000000</v>
+      </c>
+      <c r="AN10">
+        <v>267141000000</v>
+      </c>
+      <c r="AO10">
+        <v>273202000000</v>
+      </c>
+      <c r="AP10">
+        <v>325084000000</v>
+      </c>
+      <c r="AQ10">
+        <v>292844000000</v>
+      </c>
+      <c r="AR10">
+        <v>300753000000</v>
+      </c>
+      <c r="AS10">
+        <v>314119000000</v>
+      </c>
+      <c r="AT10">
+        <v>345267000000</v>
+      </c>
+      <c r="AU10">
+        <v>362916000000</v>
+      </c>
+      <c r="AV10">
+        <v>386867000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11">
+        <v>3225000000</v>
+      </c>
+      <c r="J11">
+        <v>4000000000</v>
+      </c>
+      <c r="N11">
+        <v>4026000000</v>
+      </c>
+      <c r="R11">
+        <v>4062000000</v>
+      </c>
+      <c r="V11">
+        <v>4685000000</v>
+      </c>
+      <c r="Z11">
+        <v>15319000000</v>
+      </c>
+      <c r="AD11">
+        <v>15440000000</v>
+      </c>
+      <c r="AH11">
+        <v>15312000000</v>
+      </c>
+      <c r="AL11">
+        <v>13000000000</v>
+      </c>
+      <c r="AP11">
         <v>12000000000</v>
-      </c>
-      <c r="R9">
-        <v>11451000000</v>
-      </c>
-      <c r="U9">
-        <v>19289000000</v>
-      </c>
-      <c r="X9">
-        <v>25106000000</v>
-      </c>
-      <c r="AA9">
-        <v>23509000000</v>
-      </c>
-      <c r="AD9">
-        <v>28848000000</v>
-      </c>
-      <c r="AG9">
-        <v>36150000000</v>
       </c>
     </row>
   </sheetData>
@@ -1868,13 +3719,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1980,567 +3831,472 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="E2">
         <v>-2655000000</v>
       </c>
-      <c r="C2">
+      <c r="G2">
         <v>-2753000000</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>-2789000000</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>-3230000000</v>
       </c>
-      <c r="F2">
+      <c r="K2">
         <v>-3367000000</v>
       </c>
-      <c r="G2">
+      <c r="L2">
         <v>-3363000000</v>
       </c>
-      <c r="H2">
+      <c r="M2">
         <v>-3596000000</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>-3942000000</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>-4172000000</v>
       </c>
-      <c r="K2">
+      <c r="Q2">
         <v>-4205000000</v>
       </c>
-      <c r="L2">
+      <c r="S2">
         <v>-5039000000</v>
       </c>
-      <c r="M2">
+      <c r="T2">
         <v>-5114000000</v>
       </c>
-      <c r="N2">
+      <c r="U2">
         <v>-5232000000</v>
       </c>
-      <c r="O2">
+      <c r="W2">
         <v>-6029000000</v>
       </c>
-      <c r="P2">
+      <c r="X2">
         <v>-6213000000</v>
       </c>
-      <c r="Q2">
+      <c r="Y2">
         <v>-6554000000</v>
       </c>
-      <c r="R2">
+      <c r="AA2">
         <v>-6820000000</v>
       </c>
-      <c r="S2">
+      <c r="AB2">
         <v>-6875000000</v>
       </c>
-      <c r="T2">
+      <c r="AC2">
         <v>-6856000000</v>
       </c>
-      <c r="U2">
+      <c r="AE2">
         <v>-7485000000</v>
       </c>
-      <c r="V2">
+      <c r="AF2">
         <v>-7675000000</v>
       </c>
-      <c r="W2">
+      <c r="AG2">
         <v>-7694000000</v>
       </c>
-      <c r="X2">
+      <c r="AI2">
         <v>-9119000000</v>
       </c>
-      <c r="Y2">
+      <c r="AJ2">
         <v>-9841000000</v>
       </c>
-      <c r="Z2">
+      <c r="AK2">
         <v>-10273000000</v>
       </c>
-      <c r="AA2">
+      <c r="AM2">
         <v>-11468000000</v>
       </c>
-      <c r="AB2">
+      <c r="AN2">
         <v>-10588000000</v>
       </c>
-      <c r="AC2">
+      <c r="AO2">
         <v>-11258000000</v>
       </c>
-      <c r="AD2">
+      <c r="AQ2">
         <v>-11903000000</v>
       </c>
-      <c r="AE2">
+      <c r="AR2">
         <v>-11860000000</v>
       </c>
-      <c r="AF2">
+      <c r="AS2">
         <v>-12447000000</v>
       </c>
-      <c r="AG2">
+      <c r="AT2">
         <v>-13556000000</v>
       </c>
-      <c r="AH2">
+      <c r="AU2">
         <v>-13808000000</v>
       </c>
-      <c r="AI2">
+      <c r="AV2">
         <v>-15151000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:48">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
+        <v>49</v>
+      </c>
+      <c r="E3">
         <v>2739000000</v>
       </c>
-      <c r="C3">
+      <c r="G3">
         <v>3515000000</v>
       </c>
-      <c r="D3">
+      <c r="H3">
         <v>3931000000</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>3979000000</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>4207000000</v>
       </c>
-      <c r="G3">
+      <c r="L3">
         <v>4877000000</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>5061000000</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>5426000000</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <v>3524000000</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <v>6732000000</v>
       </c>
-      <c r="L3">
+      <c r="S3">
         <v>9401000000</v>
       </c>
-      <c r="M3">
+      <c r="T3">
         <v>3195000000</v>
       </c>
-      <c r="N3">
+      <c r="U3">
         <v>9192000000</v>
       </c>
-      <c r="O3">
+      <c r="W3">
         <v>6657000000</v>
       </c>
-      <c r="P3">
+      <c r="X3">
         <v>9947000000</v>
       </c>
-      <c r="Q3">
+      <c r="Y3">
         <v>7068000000</v>
       </c>
-      <c r="R3">
+      <c r="AA3">
         <v>6836000000</v>
       </c>
-      <c r="S3">
+      <c r="AB3">
         <v>6959000000</v>
       </c>
-      <c r="T3">
+      <c r="AC3">
         <v>11247000000</v>
       </c>
-      <c r="U3">
+      <c r="AE3">
         <v>17930000000</v>
       </c>
-      <c r="V3">
+      <c r="AF3">
         <v>18525000000</v>
       </c>
-      <c r="W3">
+      <c r="AG3">
         <v>18936000000</v>
       </c>
-      <c r="X3">
+      <c r="AI3">
         <v>16436000000</v>
       </c>
-      <c r="Y3">
+      <c r="AJ3">
         <v>16002000000</v>
       </c>
-      <c r="Z3">
+      <c r="AK3">
         <v>13910000000</v>
       </c>
-      <c r="AA3">
+      <c r="AM3">
         <v>15051000000</v>
       </c>
-      <c r="AB3">
+      <c r="AN3">
         <v>18368000000</v>
       </c>
-      <c r="AC3">
+      <c r="AO3">
         <v>19689000000</v>
       </c>
-      <c r="AD3">
+      <c r="AQ3">
         <v>23662000000</v>
       </c>
-      <c r="AE3">
+      <c r="AR3">
         <v>23619000000</v>
       </c>
-      <c r="AF3">
+      <c r="AS3">
         <v>26301000000</v>
       </c>
-      <c r="AG3">
+      <c r="AT3">
         <v>34540000000</v>
       </c>
-      <c r="AH3">
+      <c r="AU3">
         <v>28196000000</v>
       </c>
-      <c r="AI3">
+      <c r="AV3">
         <v>34979000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="E4">
         <v>3724000000</v>
       </c>
-      <c r="C4">
+      <c r="G4">
         <v>4447000000</v>
       </c>
-      <c r="D4">
+      <c r="H4">
         <v>4825000000</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>4708000000</v>
       </c>
-      <c r="F4">
+      <c r="K4">
         <v>5342000000</v>
       </c>
-      <c r="G4">
+      <c r="L4">
         <v>5968000000</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>5767000000</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>6568000000</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <v>4132000000</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <v>7782000000</v>
       </c>
-      <c r="L4">
+      <c r="S4">
         <v>7633000000</v>
       </c>
-      <c r="M4">
+      <c r="T4">
         <v>3045000000</v>
       </c>
-      <c r="N4">
+      <c r="U4">
         <v>8625000000</v>
       </c>
-      <c r="O4">
+      <c r="W4">
         <v>6608000000</v>
       </c>
-      <c r="P4">
+      <c r="X4">
         <v>9180000000</v>
       </c>
-      <c r="Q4">
+      <c r="Y4">
         <v>9177000000</v>
       </c>
-      <c r="R4">
+      <c r="AA4">
         <v>7977000000</v>
       </c>
-      <c r="S4">
+      <c r="AB4">
         <v>6383000000</v>
       </c>
-      <c r="T4">
+      <c r="AC4">
         <v>11213000000</v>
       </c>
-      <c r="U4">
+      <c r="AE4">
         <v>16437000000</v>
       </c>
-      <c r="V4">
+      <c r="AF4">
         <v>19361000000</v>
       </c>
-      <c r="W4">
+      <c r="AG4">
         <v>21031000000</v>
       </c>
-      <c r="X4">
+      <c r="AI4">
         <v>20094000000</v>
       </c>
-      <c r="Y4">
+      <c r="AJ4">
         <v>19453000000</v>
       </c>
-      <c r="Z4">
+      <c r="AK4">
         <v>17135000000</v>
       </c>
-      <c r="AA4">
+      <c r="AM4">
         <v>17415000000</v>
       </c>
-      <c r="AB4">
+      <c r="AN4">
         <v>21838000000</v>
       </c>
-      <c r="AC4">
+      <c r="AO4">
         <v>21343000000</v>
       </c>
-      <c r="AD4">
+      <c r="AQ4">
         <v>25472000000</v>
       </c>
-      <c r="AE4">
+      <c r="AR4">
         <v>27425000000</v>
       </c>
-      <c r="AF4">
+      <c r="AS4">
         <v>28521000000</v>
       </c>
-      <c r="AG4">
+      <c r="AT4">
         <v>30606000000</v>
       </c>
-      <c r="AH4">
+      <c r="AU4">
         <v>31271000000</v>
       </c>
-      <c r="AI4">
+      <c r="AV4">
         <v>31228000000</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>-496000000</v>
-      </c>
-      <c r="F5">
-        <v>-2911000000</v>
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>16523000000</v>
+      </c>
+      <c r="G5">
+        <v>17258000000</v>
+      </c>
+      <c r="H5">
+        <v>17727000000</v>
       </c>
       <c r="I5">
-        <v>-1674000000</v>
+        <v>18675000000</v>
+      </c>
+      <c r="K5">
+        <v>20257000000</v>
       </c>
       <c r="L5">
-        <v>-2018000000</v>
+        <v>21500000000</v>
+      </c>
+      <c r="M5">
+        <v>22451000000</v>
       </c>
       <c r="O5">
-        <v>-4183000000</v>
-      </c>
-      <c r="R5">
-        <v>-8186000000</v>
+        <v>24750000000</v>
+      </c>
+      <c r="P5">
+        <v>26010000000</v>
+      </c>
+      <c r="Q5">
+        <v>27772000000</v>
+      </c>
+      <c r="S5">
+        <v>31146000000</v>
+      </c>
+      <c r="T5">
+        <v>32657000000</v>
       </c>
       <c r="U5">
-        <v>-13606000000</v>
+        <v>33740000000</v>
+      </c>
+      <c r="W5">
+        <v>36339000000</v>
       </c>
       <c r="X5">
-        <v>-16214000000</v>
+        <v>38944000000</v>
+      </c>
+      <c r="Y5">
+        <v>40499000000</v>
       </c>
       <c r="AA5">
-        <v>-16568000000</v>
-      </c>
-      <c r="AD5">
-        <v>-19714000000</v>
+        <v>41159000000</v>
+      </c>
+      <c r="AB5">
+        <v>38297000000</v>
+      </c>
+      <c r="AC5">
+        <v>46173000000</v>
+      </c>
+      <c r="AE5">
+        <v>55314000000</v>
+      </c>
+      <c r="AF5">
+        <v>61880000000</v>
       </c>
       <c r="AG5">
-        <v>-20201000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>-1371000000</v>
-      </c>
-      <c r="F6">
-        <v>-1438000000</v>
-      </c>
-      <c r="I6">
-        <v>5214000000</v>
-      </c>
-      <c r="L6">
-        <v>1943000000</v>
-      </c>
-      <c r="O6">
-        <v>2447000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>16523000000</v>
-      </c>
-      <c r="C7">
-        <v>17258000000</v>
-      </c>
-      <c r="D7">
-        <v>17727000000</v>
-      </c>
-      <c r="E7">
-        <v>18675000000</v>
-      </c>
-      <c r="F7">
-        <v>20257000000</v>
-      </c>
-      <c r="G7">
-        <v>21500000000</v>
-      </c>
-      <c r="H7">
-        <v>22451000000</v>
-      </c>
-      <c r="I7">
-        <v>24750000000</v>
-      </c>
-      <c r="J7">
-        <v>26010000000</v>
-      </c>
-      <c r="K7">
-        <v>27772000000</v>
-      </c>
-      <c r="L7">
-        <v>31146000000</v>
-      </c>
-      <c r="M7">
-        <v>32657000000</v>
-      </c>
-      <c r="N7">
-        <v>33740000000</v>
-      </c>
-      <c r="O7">
-        <v>36339000000</v>
-      </c>
-      <c r="P7">
-        <v>38944000000</v>
-      </c>
-      <c r="Q7">
-        <v>40499000000</v>
-      </c>
-      <c r="R7">
-        <v>41159000000</v>
-      </c>
-      <c r="S7">
-        <v>38297000000</v>
-      </c>
-      <c r="T7">
-        <v>46173000000</v>
-      </c>
-      <c r="U7">
-        <v>55314000000</v>
-      </c>
-      <c r="V7">
-        <v>61880000000</v>
-      </c>
-      <c r="W7">
         <v>65118000000</v>
       </c>
-      <c r="X7">
+      <c r="AI5">
         <v>68011000000</v>
       </c>
-      <c r="Y7">
+      <c r="AJ5">
         <v>69685000000</v>
       </c>
-      <c r="Z7">
+      <c r="AK5">
         <v>69092000000</v>
       </c>
-      <c r="AA7">
+      <c r="AM5">
         <v>69787000000</v>
       </c>
-      <c r="AB7">
+      <c r="AN5">
         <v>74604000000</v>
       </c>
-      <c r="AC7">
+      <c r="AO5">
         <v>76693000000</v>
       </c>
-      <c r="AD7">
+      <c r="AQ5">
         <v>80539000000</v>
       </c>
-      <c r="AE7">
+      <c r="AR5">
         <v>84742000000</v>
       </c>
-      <c r="AF7">
+      <c r="AS5">
         <v>88268000000</v>
       </c>
-      <c r="AG7">
+      <c r="AT5">
         <v>90234000000</v>
       </c>
-      <c r="AH7">
+      <c r="AU5">
         <v>96428000000</v>
       </c>
-      <c r="AI7">
+      <c r="AV5">
         <v>102346000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>-7304000000</v>
-      </c>
-      <c r="F8">
-        <v>-6245000000</v>
-      </c>
-      <c r="I8">
-        <v>-2851000000</v>
-      </c>
-      <c r="L8">
-        <v>-7846000000</v>
-      </c>
-      <c r="O8">
-        <v>-5388000000</v>
-      </c>
-      <c r="R8">
-        <v>-1847000000</v>
-      </c>
-      <c r="U8">
-        <v>-5383000000</v>
-      </c>
-      <c r="X8">
-        <v>-9051000000</v>
-      </c>
-      <c r="AA8">
-        <v>-2946000000</v>
-      </c>
-      <c r="AD8">
-        <v>-8564000000</v>
-      </c>
-      <c r="AG8">
-        <v>-16194000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9">
-        <v>6722000000</v>
-      </c>
-      <c r="F9">
-        <v>7658000000</v>
-      </c>
-      <c r="I9">
-        <v>9548000000</v>
-      </c>
-      <c r="L9">
-        <v>11642000000</v>
-      </c>
-      <c r="O9">
-        <v>12000000000</v>
-      </c>
-      <c r="R9">
-        <v>11451000000</v>
-      </c>
-      <c r="U9">
-        <v>19289000000</v>
-      </c>
-      <c r="X9">
-        <v>25106000000</v>
-      </c>
-      <c r="AA9">
-        <v>23509000000</v>
-      </c>
-      <c r="AD9">
-        <v>28848000000</v>
-      </c>
-      <c r="AG9">
-        <v>36150000000</v>
       </c>
     </row>
   </sheetData>
@@ -2550,13 +4306,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2662,566 +4418,177 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>-2655000000</v>
-      </c>
-      <c r="C2">
-        <v>-2753000000</v>
-      </c>
-      <c r="D2">
-        <v>-2789000000</v>
-      </c>
-      <c r="E2">
-        <v>-3230000000</v>
-      </c>
-      <c r="F2">
-        <v>-3367000000</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>-3363000000</v>
-      </c>
-      <c r="H2">
-        <v>-3596000000</v>
-      </c>
-      <c r="I2">
-        <v>-3942000000</v>
-      </c>
-      <c r="J2">
-        <v>-4172000000</v>
+        <v>-496000000</v>
       </c>
       <c r="K2">
-        <v>-4205000000</v>
-      </c>
-      <c r="L2">
-        <v>-5039000000</v>
-      </c>
-      <c r="M2">
-        <v>-5114000000</v>
-      </c>
-      <c r="N2">
-        <v>-5232000000</v>
+        <v>-2911000000</v>
       </c>
       <c r="O2">
-        <v>-6029000000</v>
-      </c>
-      <c r="P2">
-        <v>-6213000000</v>
-      </c>
-      <c r="Q2">
-        <v>-6554000000</v>
-      </c>
-      <c r="R2">
-        <v>-6820000000</v>
+        <v>-1674000000</v>
       </c>
       <c r="S2">
-        <v>-6875000000</v>
-      </c>
-      <c r="T2">
-        <v>-6856000000</v>
-      </c>
-      <c r="U2">
-        <v>-7485000000</v>
-      </c>
-      <c r="V2">
-        <v>-7675000000</v>
+        <v>-2018000000</v>
       </c>
       <c r="W2">
-        <v>-7694000000</v>
-      </c>
-      <c r="X2">
-        <v>-9119000000</v>
-      </c>
-      <c r="Y2">
-        <v>-9841000000</v>
-      </c>
-      <c r="Z2">
-        <v>-10273000000</v>
+        <v>-4183000000</v>
       </c>
       <c r="AA2">
-        <v>-11468000000</v>
-      </c>
-      <c r="AB2">
-        <v>-10588000000</v>
-      </c>
-      <c r="AC2">
-        <v>-11258000000</v>
-      </c>
-      <c r="AD2">
-        <v>-11903000000</v>
+        <v>-8186000000</v>
       </c>
       <c r="AE2">
-        <v>-11860000000</v>
-      </c>
-      <c r="AF2">
-        <v>-12447000000</v>
-      </c>
-      <c r="AG2">
-        <v>-13556000000</v>
-      </c>
-      <c r="AH2">
-        <v>-13808000000</v>
+        <v>-13606000000</v>
       </c>
       <c r="AI2">
-        <v>-15151000000</v>
+        <v>-16214000000</v>
+      </c>
+      <c r="AM2">
+        <v>-16568000000</v>
+      </c>
+      <c r="AQ2">
+        <v>-19714000000</v>
+      </c>
+      <c r="AT2">
+        <v>-20201000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:48">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>2739000000</v>
-      </c>
-      <c r="C3">
-        <v>3515000000</v>
-      </c>
-      <c r="D3">
-        <v>3931000000</v>
-      </c>
-      <c r="E3">
-        <v>3979000000</v>
-      </c>
-      <c r="F3">
-        <v>4207000000</v>
+        <v>52</v>
       </c>
       <c r="G3">
-        <v>4877000000</v>
-      </c>
-      <c r="H3">
-        <v>5061000000</v>
-      </c>
-      <c r="I3">
-        <v>5426000000</v>
-      </c>
-      <c r="J3">
-        <v>3524000000</v>
+        <v>-1371000000</v>
       </c>
       <c r="K3">
-        <v>6732000000</v>
-      </c>
-      <c r="L3">
-        <v>9401000000</v>
-      </c>
-      <c r="M3">
-        <v>3195000000</v>
-      </c>
-      <c r="N3">
-        <v>9192000000</v>
+        <v>-1438000000</v>
       </c>
       <c r="O3">
-        <v>6657000000</v>
-      </c>
-      <c r="P3">
-        <v>9947000000</v>
-      </c>
-      <c r="Q3">
-        <v>7068000000</v>
-      </c>
-      <c r="R3">
-        <v>6836000000</v>
+        <v>5214000000</v>
       </c>
       <c r="S3">
-        <v>6959000000</v>
-      </c>
-      <c r="T3">
-        <v>11247000000</v>
-      </c>
-      <c r="U3">
-        <v>17930000000</v>
-      </c>
-      <c r="V3">
-        <v>18525000000</v>
+        <v>1943000000</v>
       </c>
       <c r="W3">
-        <v>18936000000</v>
-      </c>
-      <c r="X3">
-        <v>16436000000</v>
-      </c>
-      <c r="Y3">
-        <v>16002000000</v>
-      </c>
-      <c r="Z3">
-        <v>13910000000</v>
-      </c>
-      <c r="AA3">
-        <v>15051000000</v>
-      </c>
-      <c r="AB3">
-        <v>18368000000</v>
-      </c>
-      <c r="AC3">
-        <v>19689000000</v>
-      </c>
-      <c r="AD3">
-        <v>23662000000</v>
-      </c>
-      <c r="AE3">
-        <v>23619000000</v>
-      </c>
-      <c r="AF3">
-        <v>26301000000</v>
-      </c>
-      <c r="AG3">
-        <v>34540000000</v>
-      </c>
-      <c r="AH3">
-        <v>28196000000</v>
-      </c>
-      <c r="AI3">
-        <v>34979000000</v>
+        <v>2447000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>3724000000</v>
-      </c>
-      <c r="C4">
-        <v>4447000000</v>
-      </c>
-      <c r="D4">
-        <v>4825000000</v>
-      </c>
-      <c r="E4">
-        <v>4708000000</v>
-      </c>
-      <c r="F4">
-        <v>5342000000</v>
+        <v>64</v>
       </c>
       <c r="G4">
-        <v>5968000000</v>
-      </c>
-      <c r="H4">
-        <v>5767000000</v>
-      </c>
-      <c r="I4">
-        <v>6568000000</v>
-      </c>
-      <c r="J4">
-        <v>4132000000</v>
+        <v>-7304000000</v>
       </c>
       <c r="K4">
-        <v>7782000000</v>
-      </c>
-      <c r="L4">
-        <v>7633000000</v>
-      </c>
-      <c r="M4">
-        <v>3045000000</v>
-      </c>
-      <c r="N4">
-        <v>8625000000</v>
+        <v>-6245000000</v>
       </c>
       <c r="O4">
-        <v>6608000000</v>
-      </c>
-      <c r="P4">
-        <v>9180000000</v>
-      </c>
-      <c r="Q4">
-        <v>9177000000</v>
-      </c>
-      <c r="R4">
-        <v>7977000000</v>
+        <v>-2851000000</v>
       </c>
       <c r="S4">
-        <v>6383000000</v>
-      </c>
-      <c r="T4">
-        <v>11213000000</v>
-      </c>
-      <c r="U4">
-        <v>16437000000</v>
-      </c>
-      <c r="V4">
-        <v>19361000000</v>
+        <v>-7846000000</v>
       </c>
       <c r="W4">
-        <v>21031000000</v>
-      </c>
-      <c r="X4">
-        <v>20094000000</v>
-      </c>
-      <c r="Y4">
-        <v>19453000000</v>
-      </c>
-      <c r="Z4">
-        <v>17135000000</v>
+        <v>-5388000000</v>
       </c>
       <c r="AA4">
-        <v>17415000000</v>
-      </c>
-      <c r="AB4">
-        <v>21838000000</v>
-      </c>
-      <c r="AC4">
-        <v>21343000000</v>
-      </c>
-      <c r="AD4">
-        <v>25472000000</v>
+        <v>-1847000000</v>
       </c>
       <c r="AE4">
-        <v>27425000000</v>
-      </c>
-      <c r="AF4">
-        <v>28521000000</v>
-      </c>
-      <c r="AG4">
-        <v>30606000000</v>
-      </c>
-      <c r="AH4">
-        <v>31271000000</v>
+        <v>-5383000000</v>
       </c>
       <c r="AI4">
-        <v>31228000000</v>
+        <v>-9051000000</v>
+      </c>
+      <c r="AM4">
+        <v>-2946000000</v>
+      </c>
+      <c r="AQ4">
+        <v>-8564000000</v>
+      </c>
+      <c r="AT4">
+        <v>-16194000000</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>-496000000</v>
-      </c>
-      <c r="F5">
-        <v>-2911000000</v>
-      </c>
-      <c r="I5">
-        <v>-1674000000</v>
-      </c>
-      <c r="L5">
-        <v>-2018000000</v>
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>6722000000</v>
+      </c>
+      <c r="K5">
+        <v>7658000000</v>
       </c>
       <c r="O5">
-        <v>-4183000000</v>
-      </c>
-      <c r="R5">
-        <v>-8186000000</v>
-      </c>
-      <c r="U5">
-        <v>-13606000000</v>
-      </c>
-      <c r="X5">
-        <v>-16214000000</v>
+        <v>9548000000</v>
+      </c>
+      <c r="S5">
+        <v>11642000000</v>
+      </c>
+      <c r="W5">
+        <v>12000000000</v>
       </c>
       <c r="AA5">
-        <v>-16568000000</v>
-      </c>
-      <c r="AD5">
-        <v>-19714000000</v>
-      </c>
-      <c r="AG5">
-        <v>-20201000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>-1371000000</v>
-      </c>
-      <c r="F6">
-        <v>-1438000000</v>
-      </c>
-      <c r="I6">
-        <v>5214000000</v>
-      </c>
-      <c r="L6">
-        <v>1943000000</v>
-      </c>
-      <c r="O6">
-        <v>2447000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>16523000000</v>
-      </c>
-      <c r="C7">
-        <v>17258000000</v>
-      </c>
-      <c r="D7">
-        <v>17727000000</v>
-      </c>
-      <c r="E7">
-        <v>18675000000</v>
-      </c>
-      <c r="F7">
-        <v>20257000000</v>
-      </c>
-      <c r="G7">
-        <v>21500000000</v>
-      </c>
-      <c r="H7">
-        <v>22451000000</v>
-      </c>
-      <c r="I7">
-        <v>24750000000</v>
-      </c>
-      <c r="J7">
-        <v>26010000000</v>
-      </c>
-      <c r="K7">
-        <v>27772000000</v>
-      </c>
-      <c r="L7">
-        <v>31146000000</v>
-      </c>
-      <c r="M7">
-        <v>32657000000</v>
-      </c>
-      <c r="N7">
-        <v>33740000000</v>
-      </c>
-      <c r="O7">
-        <v>36339000000</v>
-      </c>
-      <c r="P7">
-        <v>38944000000</v>
-      </c>
-      <c r="Q7">
-        <v>40499000000</v>
-      </c>
-      <c r="R7">
-        <v>41159000000</v>
-      </c>
-      <c r="S7">
-        <v>38297000000</v>
-      </c>
-      <c r="T7">
-        <v>46173000000</v>
-      </c>
-      <c r="U7">
-        <v>55314000000</v>
-      </c>
-      <c r="V7">
-        <v>61880000000</v>
-      </c>
-      <c r="W7">
-        <v>65118000000</v>
-      </c>
-      <c r="X7">
-        <v>68011000000</v>
-      </c>
-      <c r="Y7">
-        <v>69685000000</v>
-      </c>
-      <c r="Z7">
-        <v>69092000000</v>
-      </c>
-      <c r="AA7">
-        <v>69787000000</v>
-      </c>
-      <c r="AB7">
-        <v>74604000000</v>
-      </c>
-      <c r="AC7">
-        <v>76693000000</v>
-      </c>
-      <c r="AD7">
-        <v>80539000000</v>
-      </c>
-      <c r="AE7">
-        <v>84742000000</v>
-      </c>
-      <c r="AF7">
-        <v>88268000000</v>
-      </c>
-      <c r="AG7">
-        <v>90234000000</v>
-      </c>
-      <c r="AH7">
-        <v>96428000000</v>
-      </c>
-      <c r="AI7">
-        <v>102346000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>-7304000000</v>
-      </c>
-      <c r="F8">
-        <v>-6245000000</v>
-      </c>
-      <c r="I8">
-        <v>-2851000000</v>
-      </c>
-      <c r="L8">
-        <v>-7846000000</v>
-      </c>
-      <c r="O8">
-        <v>-5388000000</v>
-      </c>
-      <c r="R8">
-        <v>-1847000000</v>
-      </c>
-      <c r="U8">
-        <v>-5383000000</v>
-      </c>
-      <c r="X8">
-        <v>-9051000000</v>
-      </c>
-      <c r="AA8">
-        <v>-2946000000</v>
-      </c>
-      <c r="AD8">
-        <v>-8564000000</v>
-      </c>
-      <c r="AG8">
-        <v>-16194000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9">
-        <v>6722000000</v>
-      </c>
-      <c r="F9">
-        <v>7658000000</v>
-      </c>
-      <c r="I9">
-        <v>9548000000</v>
-      </c>
-      <c r="L9">
-        <v>11642000000</v>
-      </c>
-      <c r="O9">
-        <v>12000000000</v>
-      </c>
-      <c r="R9">
         <v>11451000000</v>
       </c>
-      <c r="U9">
+      <c r="AE5">
         <v>19289000000</v>
       </c>
-      <c r="X9">
+      <c r="AI5">
         <v>25106000000</v>
       </c>
-      <c r="AA9">
+      <c r="AM5">
         <v>23509000000</v>
       </c>
-      <c r="AD9">
+      <c r="AQ5">
         <v>28848000000</v>
       </c>
-      <c r="AG9">
+      <c r="AT5">
         <v>36150000000</v>
       </c>
     </row>
@@ -3232,13 +4599,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3344,566 +4711,177 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:48">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>-2655000000</v>
-      </c>
-      <c r="C2">
-        <v>-2753000000</v>
-      </c>
-      <c r="D2">
-        <v>-2789000000</v>
-      </c>
-      <c r="E2">
-        <v>-3230000000</v>
-      </c>
-      <c r="F2">
-        <v>-3367000000</v>
+        <v>51</v>
       </c>
       <c r="G2">
-        <v>-3363000000</v>
-      </c>
-      <c r="H2">
-        <v>-3596000000</v>
-      </c>
-      <c r="I2">
-        <v>-3942000000</v>
-      </c>
-      <c r="J2">
-        <v>-4172000000</v>
+        <v>-496000000</v>
       </c>
       <c r="K2">
-        <v>-4205000000</v>
-      </c>
-      <c r="L2">
-        <v>-5039000000</v>
-      </c>
-      <c r="M2">
-        <v>-5114000000</v>
-      </c>
-      <c r="N2">
-        <v>-5232000000</v>
+        <v>-2911000000</v>
       </c>
       <c r="O2">
-        <v>-6029000000</v>
-      </c>
-      <c r="P2">
-        <v>-6213000000</v>
-      </c>
-      <c r="Q2">
-        <v>-6554000000</v>
-      </c>
-      <c r="R2">
-        <v>-6820000000</v>
+        <v>-1674000000</v>
       </c>
       <c r="S2">
-        <v>-6875000000</v>
-      </c>
-      <c r="T2">
-        <v>-6856000000</v>
-      </c>
-      <c r="U2">
-        <v>-7485000000</v>
-      </c>
-      <c r="V2">
-        <v>-7675000000</v>
+        <v>-2018000000</v>
       </c>
       <c r="W2">
-        <v>-7694000000</v>
-      </c>
-      <c r="X2">
-        <v>-9119000000</v>
-      </c>
-      <c r="Y2">
-        <v>-9841000000</v>
-      </c>
-      <c r="Z2">
-        <v>-10273000000</v>
+        <v>-4183000000</v>
       </c>
       <c r="AA2">
-        <v>-11468000000</v>
-      </c>
-      <c r="AB2">
-        <v>-10588000000</v>
-      </c>
-      <c r="AC2">
-        <v>-11258000000</v>
-      </c>
-      <c r="AD2">
-        <v>-11903000000</v>
+        <v>-8186000000</v>
       </c>
       <c r="AE2">
-        <v>-11860000000</v>
-      </c>
-      <c r="AF2">
-        <v>-12447000000</v>
-      </c>
-      <c r="AG2">
-        <v>-13556000000</v>
-      </c>
-      <c r="AH2">
-        <v>-13808000000</v>
+        <v>-13606000000</v>
       </c>
       <c r="AI2">
-        <v>-15151000000</v>
+        <v>-16214000000</v>
+      </c>
+      <c r="AM2">
+        <v>-16568000000</v>
+      </c>
+      <c r="AQ2">
+        <v>-19714000000</v>
+      </c>
+      <c r="AT2">
+        <v>-20201000000</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:48">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>2739000000</v>
-      </c>
-      <c r="C3">
-        <v>3515000000</v>
-      </c>
-      <c r="D3">
-        <v>3931000000</v>
-      </c>
-      <c r="E3">
-        <v>3979000000</v>
-      </c>
-      <c r="F3">
-        <v>4207000000</v>
+        <v>52</v>
       </c>
       <c r="G3">
-        <v>4877000000</v>
-      </c>
-      <c r="H3">
-        <v>5061000000</v>
-      </c>
-      <c r="I3">
-        <v>5426000000</v>
-      </c>
-      <c r="J3">
-        <v>3524000000</v>
+        <v>-1371000000</v>
       </c>
       <c r="K3">
-        <v>6732000000</v>
-      </c>
-      <c r="L3">
-        <v>9401000000</v>
-      </c>
-      <c r="M3">
-        <v>3195000000</v>
-      </c>
-      <c r="N3">
-        <v>9192000000</v>
+        <v>-1438000000</v>
       </c>
       <c r="O3">
-        <v>6657000000</v>
-      </c>
-      <c r="P3">
-        <v>9947000000</v>
-      </c>
-      <c r="Q3">
-        <v>7068000000</v>
-      </c>
-      <c r="R3">
-        <v>6836000000</v>
+        <v>5214000000</v>
       </c>
       <c r="S3">
-        <v>6959000000</v>
-      </c>
-      <c r="T3">
-        <v>11247000000</v>
-      </c>
-      <c r="U3">
-        <v>17930000000</v>
-      </c>
-      <c r="V3">
-        <v>18525000000</v>
+        <v>1943000000</v>
       </c>
       <c r="W3">
-        <v>18936000000</v>
-      </c>
-      <c r="X3">
-        <v>16436000000</v>
-      </c>
-      <c r="Y3">
-        <v>16002000000</v>
-      </c>
-      <c r="Z3">
-        <v>13910000000</v>
-      </c>
-      <c r="AA3">
-        <v>15051000000</v>
-      </c>
-      <c r="AB3">
-        <v>18368000000</v>
-      </c>
-      <c r="AC3">
-        <v>19689000000</v>
-      </c>
-      <c r="AD3">
-        <v>23662000000</v>
-      </c>
-      <c r="AE3">
-        <v>23619000000</v>
-      </c>
-      <c r="AF3">
-        <v>26301000000</v>
-      </c>
-      <c r="AG3">
-        <v>34540000000</v>
-      </c>
-      <c r="AH3">
-        <v>28196000000</v>
-      </c>
-      <c r="AI3">
-        <v>34979000000</v>
+        <v>2447000000</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>3724000000</v>
-      </c>
-      <c r="C4">
-        <v>4447000000</v>
-      </c>
-      <c r="D4">
-        <v>4825000000</v>
-      </c>
-      <c r="E4">
-        <v>4708000000</v>
-      </c>
-      <c r="F4">
-        <v>5342000000</v>
+        <v>64</v>
       </c>
       <c r="G4">
-        <v>5968000000</v>
-      </c>
-      <c r="H4">
-        <v>5767000000</v>
-      </c>
-      <c r="I4">
-        <v>6568000000</v>
-      </c>
-      <c r="J4">
-        <v>4132000000</v>
+        <v>-7304000000</v>
       </c>
       <c r="K4">
-        <v>7782000000</v>
-      </c>
-      <c r="L4">
-        <v>7633000000</v>
-      </c>
-      <c r="M4">
-        <v>3045000000</v>
-      </c>
-      <c r="N4">
-        <v>8625000000</v>
+        <v>-6245000000</v>
       </c>
       <c r="O4">
-        <v>6608000000</v>
-      </c>
-      <c r="P4">
-        <v>9180000000</v>
-      </c>
-      <c r="Q4">
-        <v>9177000000</v>
-      </c>
-      <c r="R4">
-        <v>7977000000</v>
+        <v>-2851000000</v>
       </c>
       <c r="S4">
-        <v>6383000000</v>
-      </c>
-      <c r="T4">
-        <v>11213000000</v>
-      </c>
-      <c r="U4">
-        <v>16437000000</v>
-      </c>
-      <c r="V4">
-        <v>19361000000</v>
+        <v>-7846000000</v>
       </c>
       <c r="W4">
-        <v>21031000000</v>
-      </c>
-      <c r="X4">
-        <v>20094000000</v>
-      </c>
-      <c r="Y4">
-        <v>19453000000</v>
-      </c>
-      <c r="Z4">
-        <v>17135000000</v>
+        <v>-5388000000</v>
       </c>
       <c r="AA4">
-        <v>17415000000</v>
-      </c>
-      <c r="AB4">
-        <v>21838000000</v>
-      </c>
-      <c r="AC4">
-        <v>21343000000</v>
-      </c>
-      <c r="AD4">
-        <v>25472000000</v>
+        <v>-1847000000</v>
       </c>
       <c r="AE4">
-        <v>27425000000</v>
-      </c>
-      <c r="AF4">
-        <v>28521000000</v>
-      </c>
-      <c r="AG4">
-        <v>30606000000</v>
-      </c>
-      <c r="AH4">
-        <v>31271000000</v>
+        <v>-5383000000</v>
       </c>
       <c r="AI4">
-        <v>31228000000</v>
+        <v>-9051000000</v>
+      </c>
+      <c r="AM4">
+        <v>-2946000000</v>
+      </c>
+      <c r="AQ4">
+        <v>-8564000000</v>
+      </c>
+      <c r="AT4">
+        <v>-16194000000</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>-496000000</v>
-      </c>
-      <c r="F5">
-        <v>-2911000000</v>
-      </c>
-      <c r="I5">
-        <v>-1674000000</v>
-      </c>
-      <c r="L5">
-        <v>-2018000000</v>
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>6722000000</v>
+      </c>
+      <c r="K5">
+        <v>7658000000</v>
       </c>
       <c r="O5">
-        <v>-4183000000</v>
-      </c>
-      <c r="R5">
-        <v>-8186000000</v>
-      </c>
-      <c r="U5">
-        <v>-13606000000</v>
-      </c>
-      <c r="X5">
-        <v>-16214000000</v>
+        <v>9548000000</v>
+      </c>
+      <c r="S5">
+        <v>11642000000</v>
+      </c>
+      <c r="W5">
+        <v>12000000000</v>
       </c>
       <c r="AA5">
-        <v>-16568000000</v>
-      </c>
-      <c r="AD5">
-        <v>-19714000000</v>
-      </c>
-      <c r="AG5">
-        <v>-20201000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>-1371000000</v>
-      </c>
-      <c r="F6">
-        <v>-1438000000</v>
-      </c>
-      <c r="I6">
-        <v>5214000000</v>
-      </c>
-      <c r="L6">
-        <v>1943000000</v>
-      </c>
-      <c r="O6">
-        <v>2447000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>16523000000</v>
-      </c>
-      <c r="C7">
-        <v>17258000000</v>
-      </c>
-      <c r="D7">
-        <v>17727000000</v>
-      </c>
-      <c r="E7">
-        <v>18675000000</v>
-      </c>
-      <c r="F7">
-        <v>20257000000</v>
-      </c>
-      <c r="G7">
-        <v>21500000000</v>
-      </c>
-      <c r="H7">
-        <v>22451000000</v>
-      </c>
-      <c r="I7">
-        <v>24750000000</v>
-      </c>
-      <c r="J7">
-        <v>26010000000</v>
-      </c>
-      <c r="K7">
-        <v>27772000000</v>
-      </c>
-      <c r="L7">
-        <v>31146000000</v>
-      </c>
-      <c r="M7">
-        <v>32657000000</v>
-      </c>
-      <c r="N7">
-        <v>33740000000</v>
-      </c>
-      <c r="O7">
-        <v>36339000000</v>
-      </c>
-      <c r="P7">
-        <v>38944000000</v>
-      </c>
-      <c r="Q7">
-        <v>40499000000</v>
-      </c>
-      <c r="R7">
-        <v>41159000000</v>
-      </c>
-      <c r="S7">
-        <v>38297000000</v>
-      </c>
-      <c r="T7">
-        <v>46173000000</v>
-      </c>
-      <c r="U7">
-        <v>55314000000</v>
-      </c>
-      <c r="V7">
-        <v>61880000000</v>
-      </c>
-      <c r="W7">
-        <v>65118000000</v>
-      </c>
-      <c r="X7">
-        <v>68011000000</v>
-      </c>
-      <c r="Y7">
-        <v>69685000000</v>
-      </c>
-      <c r="Z7">
-        <v>69092000000</v>
-      </c>
-      <c r="AA7">
-        <v>69787000000</v>
-      </c>
-      <c r="AB7">
-        <v>74604000000</v>
-      </c>
-      <c r="AC7">
-        <v>76693000000</v>
-      </c>
-      <c r="AD7">
-        <v>80539000000</v>
-      </c>
-      <c r="AE7">
-        <v>84742000000</v>
-      </c>
-      <c r="AF7">
-        <v>88268000000</v>
-      </c>
-      <c r="AG7">
-        <v>90234000000</v>
-      </c>
-      <c r="AH7">
-        <v>96428000000</v>
-      </c>
-      <c r="AI7">
-        <v>102346000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8">
-        <v>-7304000000</v>
-      </c>
-      <c r="F8">
-        <v>-6245000000</v>
-      </c>
-      <c r="I8">
-        <v>-2851000000</v>
-      </c>
-      <c r="L8">
-        <v>-7846000000</v>
-      </c>
-      <c r="O8">
-        <v>-5388000000</v>
-      </c>
-      <c r="R8">
-        <v>-1847000000</v>
-      </c>
-      <c r="U8">
-        <v>-5383000000</v>
-      </c>
-      <c r="X8">
-        <v>-9051000000</v>
-      </c>
-      <c r="AA8">
-        <v>-2946000000</v>
-      </c>
-      <c r="AD8">
-        <v>-8564000000</v>
-      </c>
-      <c r="AG8">
-        <v>-16194000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9">
-        <v>6722000000</v>
-      </c>
-      <c r="F9">
-        <v>7658000000</v>
-      </c>
-      <c r="I9">
-        <v>9548000000</v>
-      </c>
-      <c r="L9">
-        <v>11642000000</v>
-      </c>
-      <c r="O9">
-        <v>12000000000</v>
-      </c>
-      <c r="R9">
         <v>11451000000</v>
       </c>
-      <c r="U9">
+      <c r="AE5">
         <v>19289000000</v>
       </c>
-      <c r="X9">
+      <c r="AI5">
         <v>25106000000</v>
       </c>
-      <c r="AA9">
+      <c r="AM5">
         <v>23509000000</v>
       </c>
-      <c r="AD9">
+      <c r="AQ5">
         <v>28848000000</v>
       </c>
-      <c r="AG9">
+      <c r="AT5">
         <v>36150000000</v>
       </c>
     </row>

--- a/USDATAX/GOOGL.xlsx
+++ b/USDATAX/GOOGL.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="67">
   <si>
     <t>Kalem</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>İşletme Faaliyetlerinden Nakit Akışları</t>
+  </si>
+  <si>
+    <t>FAVÖK</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV19"/>
+  <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2309,7 +2312,7 @@
         <v>386867000000</v>
       </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:48">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -2344,7 +2347,7 @@
         <v>12000000000</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:48">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>-16194000000</v>
       </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:48">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -2418,6 +2421,152 @@
       </c>
       <c r="AT19">
         <v>36150000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3724000000</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>4447000000</v>
+      </c>
+      <c r="H20">
+        <v>4825000000</v>
+      </c>
+      <c r="I20">
+        <v>4708000000</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>5342000000</v>
+      </c>
+      <c r="L20">
+        <v>5968000000</v>
+      </c>
+      <c r="M20">
+        <v>5767000000</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>6568000000</v>
+      </c>
+      <c r="P20">
+        <v>4132000000</v>
+      </c>
+      <c r="Q20">
+        <v>7782000000</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>7633000000</v>
+      </c>
+      <c r="T20">
+        <v>3045000000</v>
+      </c>
+      <c r="U20">
+        <v>8625000000</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>6608000000</v>
+      </c>
+      <c r="X20">
+        <v>9180000000</v>
+      </c>
+      <c r="Y20">
+        <v>9177000000</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>7977000000</v>
+      </c>
+      <c r="AB20">
+        <v>6383000000</v>
+      </c>
+      <c r="AC20">
+        <v>11213000000</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>16437000000</v>
+      </c>
+      <c r="AF20">
+        <v>19361000000</v>
+      </c>
+      <c r="AG20">
+        <v>21031000000</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>20094000000</v>
+      </c>
+      <c r="AJ20">
+        <v>19453000000</v>
+      </c>
+      <c r="AK20">
+        <v>17135000000</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>17415000000</v>
+      </c>
+      <c r="AN20">
+        <v>21838000000</v>
+      </c>
+      <c r="AO20">
+        <v>21343000000</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>25472000000</v>
+      </c>
+      <c r="AR20">
+        <v>27425000000</v>
+      </c>
+      <c r="AS20">
+        <v>28521000000</v>
+      </c>
+      <c r="AT20">
+        <v>30606000000</v>
+      </c>
+      <c r="AU20">
+        <v>31271000000</v>
+      </c>
+      <c r="AV20">
+        <v>31228000000</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3868,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AV6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4297,6 +4446,152 @@
       </c>
       <c r="AV5">
         <v>102346000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3724000000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>4447000000</v>
+      </c>
+      <c r="H6">
+        <v>4825000000</v>
+      </c>
+      <c r="I6">
+        <v>4708000000</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>5342000000</v>
+      </c>
+      <c r="L6">
+        <v>5968000000</v>
+      </c>
+      <c r="M6">
+        <v>5767000000</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6568000000</v>
+      </c>
+      <c r="P6">
+        <v>4132000000</v>
+      </c>
+      <c r="Q6">
+        <v>7782000000</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>7633000000</v>
+      </c>
+      <c r="T6">
+        <v>3045000000</v>
+      </c>
+      <c r="U6">
+        <v>8625000000</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>6608000000</v>
+      </c>
+      <c r="X6">
+        <v>9180000000</v>
+      </c>
+      <c r="Y6">
+        <v>9177000000</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>7977000000</v>
+      </c>
+      <c r="AB6">
+        <v>6383000000</v>
+      </c>
+      <c r="AC6">
+        <v>11213000000</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>16437000000</v>
+      </c>
+      <c r="AF6">
+        <v>19361000000</v>
+      </c>
+      <c r="AG6">
+        <v>21031000000</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>20094000000</v>
+      </c>
+      <c r="AJ6">
+        <v>19453000000</v>
+      </c>
+      <c r="AK6">
+        <v>17135000000</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>17415000000</v>
+      </c>
+      <c r="AN6">
+        <v>21838000000</v>
+      </c>
+      <c r="AO6">
+        <v>21343000000</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>25472000000</v>
+      </c>
+      <c r="AR6">
+        <v>27425000000</v>
+      </c>
+      <c r="AS6">
+        <v>28521000000</v>
+      </c>
+      <c r="AT6">
+        <v>30606000000</v>
+      </c>
+      <c r="AU6">
+        <v>31271000000</v>
+      </c>
+      <c r="AV6">
+        <v>31228000000</v>
       </c>
     </row>
   </sheetData>
